--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32513-d84097-Reviews-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Huntington-Beach.h202833.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1533 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r579453942-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32513</t>
+  </si>
+  <si>
+    <t>84097</t>
+  </si>
+  <si>
+    <t>579453942</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>I have to admit this place is great. The staff was wonderful great hospitality and the room I stayed in was spotless. The housekeepers are nice and helpful. This is my new place to stay and I highly recommend itMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2018</t>
+  </si>
+  <si>
+    <t>I have to admit this place is great. The staff was wonderful great hospitality and the room I stayed in was spotless. The housekeepers are nice and helpful. This is my new place to stay and I highly recommend itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r574843499-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>574843499</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER!!</t>
+  </si>
+  <si>
+    <t>Have you ever walked in on someone boning? Well I have! On my stay here I forcible, because I thought it was my room, tried to get into the room. After a few attempts I got in and therefore it was before me! All the front desk people said was "sorry." They had no more rooms. However they did put is in a room with one queen bed and even at that it smelled like dog pee. What a wonderful stay with the extended stay.... never again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Have you ever walked in on someone boning? Well I have! On my stay here I forcible, because I thought it was my room, tried to get into the room. After a few attempts I got in and therefore it was before me! All the front desk people said was "sorry." They had no more rooms. However they did put is in a room with one queen bed and even at that it smelled like dog pee. What a wonderful stay with the extended stay.... never again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r569097779-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>569097779</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Best Stay Ever</t>
+  </si>
+  <si>
+    <t>The place is a little hidden because it is behind Boeing but the scenery is nice. It is very quiet and had a full nights rest. I love the customer service I got from Anna. She was so helpful, guiding me to food areas and things to do around the beach. I was satisfied with my room. I double checked behind and under bed for any trash but the room was spotless. This is definitely my first choice when I come back to this side of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>The place is a little hidden because it is behind Boeing but the scenery is nice. It is very quiet and had a full nights rest. I love the customer service I got from Anna. She was so helpful, guiding me to food areas and things to do around the beach. I was satisfied with my room. I double checked behind and under bed for any trash but the room was spotless. This is definitely my first choice when I come back to this side of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r563424454-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>563424454</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>AMAZING SERVICE</t>
+  </si>
+  <si>
+    <t>Hotel is very clean. My room smell nice and I even inspected for any trash and couldn't find none. Anna was amazing and made my stay very pleasant. Thank you Anna for making my experience there Superb. Also the house keepers Alejandra and Mayra thank you. anytime I needed extra shampoo with no hesitation they would give me these amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is very clean. My room smell nice and I even inspected for any trash and couldn't find none. Anna was amazing and made my stay very pleasant. Thank you Anna for making my experience there Superb. Also the house keepers Alejandra and Mayra thank you. anytime I needed extra shampoo with no hesitation they would give me these amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r552240721-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>552240721</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Room sucked</t>
+  </si>
+  <si>
+    <t>Room smelled like a litter box it was nauseating. Promised breakfast was non-existent....coffee (with out even milk offered to go with just nasty sugared creamer that people watching their sugar can't have). Granola bars and ONE kind of oatmeal (cinnamon which my daughter won't touch). Not so much as a glass or ice bucket in the room, had to go to front desk for that and an extra blanket. Took a shower and wiped the wet floor up and the towel cane back black!!! So nasty, like when was the last time the bathroom got a real clean!?!?!? We had been looking for something a little nicer than Motel 6 to stay with our dog, next time we'll stay there!!! Motel 6 is way cheaper, cleaner and at least has cups in the room so your not hunting after a long trip! We'll stay elsewhere next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Room smelled like a litter box it was nauseating. Promised breakfast was non-existent....coffee (with out even milk offered to go with just nasty sugared creamer that people watching their sugar can't have). Granola bars and ONE kind of oatmeal (cinnamon which my daughter won't touch). Not so much as a glass or ice bucket in the room, had to go to front desk for that and an extra blanket. Took a shower and wiped the wet floor up and the towel cane back black!!! So nasty, like when was the last time the bathroom got a real clean!?!?!? We had been looking for something a little nicer than Motel 6 to stay with our dog, next time we'll stay there!!! Motel 6 is way cheaper, cleaner and at least has cups in the room so your not hunting after a long trip! We'll stay elsewhere next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r546270155-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>546270155</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Terrific Value</t>
+  </si>
+  <si>
+    <t>I have at this hotel three times in the past four months while visiting an ill relative in the area. This was my first experience with Extended Stay and I was very impressed.  Nothing fancy but everything you need for a very good price, particularly in a very expensive part of the country.  Staff was friendly and helpful.  Room was clean and comfortable. I will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded December 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2017</t>
+  </si>
+  <si>
+    <t>I have at this hotel three times in the past four months while visiting an ill relative in the area. This was my first experience with Extended Stay and I was very impressed.  Nothing fancy but everything you need for a very good price, particularly in a very expensive part of the country.  Staff was friendly and helpful.  Room was clean and comfortable. I will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r532642389-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>532642389</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>I arrived there late but the staff was very accommodating. There was a little problem concerning cancelling a reservation but management was informed and I was refunded my payment. Also, the full size frig and kitchen area was very nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>I arrived there late but the staff was very accommodating. There was a little problem concerning cancelling a reservation but management was informed and I was refunded my payment. Also, the full size frig and kitchen area was very nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r531488185-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>531488185</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Friendly, caring professional Staff</t>
+  </si>
+  <si>
+    <t>I was in Huntinton Beach for health reasons and was having quite a bit of discomfort and mobility issures, and the staff was always there to help. And they were very sweet to my cat, who is great emotional support to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>I was in Huntinton Beach for health reasons and was having quite a bit of discomfort and mobility issures, and the staff was always there to help. And they were very sweet to my cat, who is great emotional support to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r525609445-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>525609445</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>Free continental breakfast while supplies last. Clean room. Quiet atmosphere. Parking available all around the hotel. Anna was the one who helped me. She was kind and very hospitable. No problems here!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Free continental breakfast while supplies last. Clean room. Quiet atmosphere. Parking available all around the hotel. Anna was the one who helped me. She was kind and very hospitable. No problems here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r507286088-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>507286088</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Close to the beach</t>
+  </si>
+  <si>
+    <t>Although this hotel is in a business area, it is close to beaches.  Food and shopping nearby, but area is quiet and peaceful.  Facilities are nice and clean with lots of parking.  Grab and Go breakfast is great if you are in a hurry and just want something to go as you head out of the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Although this hotel is in a business area, it is close to beaches.  Food and shopping nearby, but area is quiet and peaceful.  Facilities are nice and clean with lots of parking.  Grab and Go breakfast is great if you are in a hurry and just want something to go as you head out of the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r506365231-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>506365231</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Hotel room and hallway smell...  Bed sizes are uncomfortable.....There's no refreshment drink for customers in the lobby.  Also have no garbage trash outside lobby hotel. Please order a vending machine so people can get refreshment when needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Hotel room and hallway smell...  Bed sizes are uncomfortable.....There's no refreshment drink for customers in the lobby.  Also have no garbage trash outside lobby hotel. Please order a vending machine so people can get refreshment when needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r503716937-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>503716937</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Business Meeting</t>
+  </si>
+  <si>
+    <t>Everything was horriblebed was uncomfortableno wake up callrequested to change the sheets, they said you do itroom wasn't cleannot enough cable channelsno cups in the roombad internet receptionMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Everything was horriblebed was uncomfortableno wake up callrequested to change the sheets, they said you do itroom wasn't cleannot enough cable channelsno cups in the roombad internet receptionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r501664222-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>501664222</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely filthy </t>
+  </si>
+  <si>
+    <t>Disgusting excuse for a hotel... see photos. Inept staff, put us in a dirty un-made room upon check in at 3 AM... moved to a filthy made up room. No ice on property, no coffee in room, crappy bedding, photo copied ID and credit card... refused to return or destroy upon request, middle of nowhere, complained to front desk and was told "sorry bout that" and given managers card as the manager doesn't work until 11 am. 150 per night for this as well...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Disgusting excuse for a hotel... see photos. Inept staff, put us in a dirty un-made room upon check in at 3 AM... moved to a filthy made up room. No ice on property, no coffee in room, crappy bedding, photo copied ID and credit card... refused to return or destroy upon request, middle of nowhere, complained to front desk and was told "sorry bout that" and given managers card as the manager doesn't work until 11 am. 150 per night for this as well...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r501802767-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>501802767</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>I already knew that Extended Stay hotels were clean and comfortable.  The location of this hotel was perfect for our needs and the gal that helped us check in was so sweet and efficient.  We didn't stay long enough to use the kitchen but I could sure see what a great addition that would be for a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I already knew that Extended Stay hotels were clean and comfortable.  The location of this hotel was perfect for our needs and the gal that helped us check in was so sweet and efficient.  We didn't stay long enough to use the kitchen but I could sure see what a great addition that would be for a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r500125368-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>500125368</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>You'll love Extended Stay</t>
+  </si>
+  <si>
+    <t>A+ on all items.  I know you will be pleased also.  They made the check-in easy and fast.  No hassle.  When we got to the room it was super clean and beautiful.  The only negative is that there was no breakfast.  Oh well.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>A+ on all items.  I know you will be pleased also.  They made the check-in easy and fast.  No hassle.  When we got to the room it was super clean and beautiful.  The only negative is that there was no breakfast.  Oh well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r495037600-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>495037600</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I loved this place. I had never stayed in this hotel chain before. for my surprise and delight it was very clean, safe, the room is perfect for long or short stay and great staff. I highly recommend it. The location is very convenient close to the freeway and other local restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>I loved this place. I had never stayed in this hotel chain before. for my surprise and delight it was very clean, safe, the room is perfect for long or short stay and great staff. I highly recommend it. The location is very convenient close to the freeway and other local restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r494393222-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>494393222</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Won't be choosing to here again</t>
+  </si>
+  <si>
+    <t>I guess I didn't read too much on the breakfast included. It was just a mini bar in front of check in that included just coffee, muffins and granola bars. We had to ask for kitchen utensils/silverware. Nothing was in the cabinets. Had to ask for more toilet paper since no one had cleaned the rooms during our 3 night stay. Had a full bag of garbage outside the door, hoping someone would pick it up. After asking front desk about garbage pick up, we were then informed about a trash room where you have to dispose it yourself. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>I guess I didn't read too much on the breakfast included. It was just a mini bar in front of check in that included just coffee, muffins and granola bars. We had to ask for kitchen utensils/silverware. Nothing was in the cabinets. Had to ask for more toilet paper since no one had cleaned the rooms during our 3 night stay. Had a full bag of garbage outside the door, hoping someone would pick it up. After asking front desk about garbage pick up, we were then informed about a trash room where you have to dispose it yourself. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r494255286-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>494255286</t>
+  </si>
+  <si>
+    <t>Positive review</t>
+  </si>
+  <si>
+    <t>Great room and great service at the front desk. Very personable. It didn't feel fake or forced like at other chain hotels. Good vibes. I highly recommend to anyone. Especially those with dogs, there were many people staying with dogs I loved it. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Great room and great service at the front desk. Very personable. It didn't feel fake or forced like at other chain hotels. Good vibes. I highly recommend to anyone. Especially those with dogs, there were many people staying with dogs I loved it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r492517427-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>492517427</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>⭐️⭐️⭐️⭐️⭐️Customer Service</t>
+  </si>
+  <si>
+    <t>Once again my travels brought me back to the Extended Stay. It is in my opinion the best deal around for all of my needs. They are pet friendly &amp; have full sized refrigerators, parking is not a hassle &amp; it's free. Every time I've stayed here in the past I've been greeted by the most wonderful staff in the hotel business, Jocelyn &amp; Rosie. All of the front desk girls greet me by my first name &amp; are so helpful &amp; friendly every single day. Rosie's customer service skills are outstanding. She will go out of her way to go the extra mile in making sure your stay is comfortable &amp; enjoyable, as well as making sure you have everything you need. Rosie &amp; Jocelyn have been so helpful &amp; kind to me during my stays here, it's one of the reasons I keep coming back &amp; will continue to come back so long as either one of them still work here. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Once again my travels brought me back to the Extended Stay. It is in my opinion the best deal around for all of my needs. They are pet friendly &amp; have full sized refrigerators, parking is not a hassle &amp; it's free. Every time I've stayed here in the past I've been greeted by the most wonderful staff in the hotel business, Jocelyn &amp; Rosie. All of the front desk girls greet me by my first name &amp; are so helpful &amp; friendly every single day. Rosie's customer service skills are outstanding. She will go out of her way to go the extra mile in making sure your stay is comfortable &amp; enjoyable, as well as making sure you have everything you need. Rosie &amp; Jocelyn have been so helpful &amp; kind to me during my stays here, it's one of the reasons I keep coming back &amp; will continue to come back so long as either one of them still work here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r483572136-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>483572136</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NICE PLACE</t>
+  </si>
+  <si>
+    <t>Rosie and Christina are such sweet hearts great customer service.so what makes these ladies stand out is the fact that there kind rosie always smiling making sure we were well taken care of. Also has coffee all night. Christina was always moving back and forth busy but still was so kind when we checked outMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Rosie and Christina are such sweet hearts great customer service.so what makes these ladies stand out is the fact that there kind rosie always smiling making sure we were well taken care of. Also has coffee all night. Christina was always moving back and forth busy but still was so kind when we checked outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r480757636-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>480757636</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Joselyn Super Sweet</t>
+  </si>
+  <si>
+    <t>Rooms are great, very clean. Pet friendly, I brought my two dogs a long with me and it has been great so far! Jocelyn so far has been my favorite on the staff. She is extremely helpful she goes above and beyond for not only me but other guests that I have witnessed her help.  Keep up the great customer serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Rooms are great, very clean. Pet friendly, I brought my two dogs a long with me and it has been great so far! Jocelyn so far has been my favorite on the staff. She is extremely helpful she goes above and beyond for not only me but other guests that I have witnessed her help.  Keep up the great customer serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r466287324-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>466287324</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>outdated hotel with all the basics</t>
+  </si>
+  <si>
+    <t>the hotel is old, not romantic or cozy but functional.good parkingspace, kitchen with large fridge and you are all set!breakfast is non excistingso if you just want sleep, bring your own breakfast etc this hotel is ok</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r459510411-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>459510411</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service!</t>
+  </si>
+  <si>
+    <t>I stay at this hotel from time to time &amp; have always found the customer service to be exceptional. The front desk girls are so professional &amp; kind. Their helpfulness is uncompromising. Two in particular, Jocelyn &amp; Rosie are such a pleasure to deal with. Their professionalism is comparable to that of a 4 or 5 star hotel, such as the Hilton. All of the employees from the front desk to housekeeping make my stay here enjoyable &amp; peaceful with no stresses whatsoever. The rooms are always clean &amp; smell fresh. They offer a 24 hour laundry facility, free coffee all day in the lobby &amp; a free grab &amp; go breakfast every morning, also in the lobby. The kitchens are huge with a full size refrigerator and upon request will be equipped with all of the basics for you to prepare your own meals. The bathrooms appear to be updated as well. The grounds are clean and well maintained. This particular property is quiet &amp; surrounded by businesses only. I would definitely recommend to anyone who's looking to stay in HB for a while, book a room here! You won't regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I stay at this hotel from time to time &amp; have always found the customer service to be exceptional. The front desk girls are so professional &amp; kind. Their helpfulness is uncompromising. Two in particular, Jocelyn &amp; Rosie are such a pleasure to deal with. Their professionalism is comparable to that of a 4 or 5 star hotel, such as the Hilton. All of the employees from the front desk to housekeeping make my stay here enjoyable &amp; peaceful with no stresses whatsoever. The rooms are always clean &amp; smell fresh. They offer a 24 hour laundry facility, free coffee all day in the lobby &amp; a free grab &amp; go breakfast every morning, also in the lobby. The kitchens are huge with a full size refrigerator and upon request will be equipped with all of the basics for you to prepare your own meals. The bathrooms appear to be updated as well. The grounds are clean and well maintained. This particular property is quiet &amp; surrounded by businesses only. I would definitely recommend to anyone who's looking to stay in HB for a while, book a room here! You won't regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r457993846-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>457993846</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Fantastic service!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got a really great deal on Priceline.com and very pleased with the price and hotel. Rosie at the front desk went above and beyond. She was so kind &amp; friendly and made my birthday very special. The room was clean and comfy. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r455094809-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>455094809</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Awesome customer service</t>
+  </si>
+  <si>
+    <t>The staff is excellent here at Extended Stay. One particular person comes to mind as I'm typing this review. Her name is Rosie. She is very attentive to guests questions and needs. She is always smiling and will always ask how your day is. This is the type of service we should all expect. Thank you so much for making my stay comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>The staff is excellent here at Extended Stay. One particular person comes to mind as I'm typing this review. Her name is Rosie. She is very attentive to guests questions and needs. She is always smiling and will always ask how your day is. This is the type of service we should all expect. Thank you so much for making my stay comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r452929036-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>452929036</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Always have a great experience at this hotel</t>
+  </si>
+  <si>
+    <t>I'm constantly traveling to Orange County for work &amp; I always stay at this hotel. I love that they have a kitchen &amp; they're close to shopping areas. The rooms are clean with plenty of space to feel comfortable in &amp; the front desk staff; Jocelyn, Cristina, Bree &amp; Rosie are always super helpful &amp; nice. I definitely recommend staying here if you're looking for a clean &amp; quite place to stay that's not too far from the beach &amp; shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I'm constantly traveling to Orange County for work &amp; I always stay at this hotel. I love that they have a kitchen &amp; they're close to shopping areas. The rooms are clean with plenty of space to feel comfortable in &amp; the front desk staff; Jocelyn, Cristina, Bree &amp; Rosie are always super helpful &amp; nice. I definitely recommend staying here if you're looking for a clean &amp; quite place to stay that's not too far from the beach &amp; shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r451714853-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>451714853</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Late check in is a joke</t>
+  </si>
+  <si>
+    <t>The hotel itself isn't too bad. It's not fancy but it isn't terrible. Rooms are clean. Rooms are large with little kitchenettes. There are no cutlery plates bowls cups or anything though. Every drawer in the room was open when I arrived. Rooms are a bit dated but nothing out of the ordinary. Late check in was horrendous though. This place is so cheap it doesn't even have a nigh staff at the desk. You have to TRY to check in with a housekeeper who doesn't speak great English. She had a reservation for me. Showed me the paper with my name and still said she didn't have a key for me? After traveling for 9 hours I just wanted to get some sleep. The check in process at 1130pm took over half an hour!!! She couldn't care less either while she attempted to call a number of employees who wouldn't answer the phone. After writing down my credit card info and drivers license I finally got my key. She didn't tell me where my room was located or where the elevators are or anything. Probably the worst check in experience I have ever had. Youd think it was in the middle of the night but this wasn't even midnight!! MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself isn't too bad. It's not fancy but it isn't terrible. Rooms are clean. Rooms are large with little kitchenettes. There are no cutlery plates bowls cups or anything though. Every drawer in the room was open when I arrived. Rooms are a bit dated but nothing out of the ordinary. Late check in was horrendous though. This place is so cheap it doesn't even have a nigh staff at the desk. You have to TRY to check in with a housekeeper who doesn't speak great English. She had a reservation for me. Showed me the paper with my name and still said she didn't have a key for me? After traveling for 9 hours I just wanted to get some sleep. The check in process at 1130pm took over half an hour!!! She couldn't care less either while she attempted to call a number of employees who wouldn't answer the phone. After writing down my credit card info and drivers license I finally got my key. She didn't tell me where my room was located or where the elevators are or anything. Probably the worst check in experience I have ever had. Youd think it was in the middle of the night but this wasn't even midnight!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r444343716-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>444343716</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Hotel is great overall</t>
+  </si>
+  <si>
+    <t>Everyone was pleasant at the extended stay and Rosie was very nice at the desk as well. From silverware and kitchen stuff to fresh coffee and forgotten room keys she was there at all hours...Def recommend the stay here and the location is good too...MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Everyone was pleasant at the extended stay and Rosie was very nice at the desk as well. From silverware and kitchen stuff to fresh coffee and forgotten room keys she was there at all hours...Def recommend the stay here and the location is good too...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r443332807-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>443332807</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Huntington Beach 12/10/16</t>
+  </si>
+  <si>
+    <t>Great location, clean room and friendly and accommodating front desk personnel. Her name is Rosie at we checked in around 1045 pm. She was almost done with her shift at 11pm but did not make that noticeable what so ever even though she helped us past her shift end. She was very patient and friendly. I asked if she was working graveyard shift for personal reasons and that's when I realized she patiently was working with us when she was off. Thank you Rosie MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Great location, clean room and friendly and accommodating front desk personnel. Her name is Rosie at we checked in around 1045 pm. She was almost done with her shift at 11pm but did not make that noticeable what so ever even though she helped us past her shift end. She was very patient and friendly. I asked if she was working graveyard shift for personal reasons and that's when I realized she patiently was working with us when she was off. Thank you Rosie More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r439391010-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>439391010</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>This is the 4th time I've been to this hotel. Today I was greeted by Rosie at the front desk again. Rosie always takes care of any issues with a smile and makes it. Ice to come back here. I will definitely continue to use this hotel. It's clean and comfortable - a little off the beaten path but close enough as to not be inconvenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>This is the 4th time I've been to this hotel. Today I was greeted by Rosie at the front desk again. Rosie always takes care of any issues with a smile and makes it. Ice to come back here. I will definitely continue to use this hotel. It's clean and comfortable - a little off the beaten path but close enough as to not be inconvenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r416821356-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>416821356</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Staff</t>
+  </si>
+  <si>
+    <t>Stayed here for an overnight business trip. Room was clean. Floor was quiet. The bed was just ok. The bathroom was clean. This hotel features kitchenettes and you can get your kitchen items from the front desk. Continental breakfast in the mornings was offered. The front desk staff was so friendly and helpful! She gave me info on places to eat and was just great!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for an overnight business trip. Room was clean. Floor was quiet. The bed was just ok. The bathroom was clean. This hotel features kitchenettes and you can get your kitchen items from the front desk. Continental breakfast in the mornings was offered. The front desk staff was so friendly and helpful! She gave me info on places to eat and was just great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r386621017-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>386621017</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Really 2.5 Stars</t>
+  </si>
+  <si>
+    <t>Just needed a place while I had to take care of some overnight business. Stayed here. It was "OK". The room was clean but had a smell of dirty feet/shoes. The bed not that comfortable. The pillows were old and flat. The furniture pretty dinged up. The Employees were nice and the location for what I needed good.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r366557685-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>366557685</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel clean</t>
+  </si>
+  <si>
+    <t>This hotel is right next to Boeing the air plane maker and so at times the rates fluctuate a bit. It's very clean and quiet in a nice location. Very peaceful to rest I would say. You can stay 60 days or more and get a good discount off the room rate. The manager is very nice here. We love the staff as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is right next to Boeing the air plane maker and so at times the rates fluctuate a bit. It's very clean and quiet in a nice location. Very peaceful to rest I would say. You can stay 60 days or more and get a good discount off the room rate. The manager is very nice here. We love the staff as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r356535357-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>356535357</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Comfort hotel, Close to little Saigon community</t>
+  </si>
+  <si>
+    <t>Extended stay hotels are little apartments away from home. there's a complete kitchen, bathroom, bed of course, table, chairs, some have sofas, wifi and TV's. There is a business center and conference rooms for meeting. The rooms are clean the property well kept and staff helpful. If you need a home away from home that's the place. Say hello to  HUGO at the front desk when you are there.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r355016683-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>355016683</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I got a room here despite the bad reviews.  I found the desk help very helpful.  The cleaning staff friendly.  The room was clean.  Water was hot.  Beds a little hard.  Had everything we needed for three day stop.  Fridge.  Microwave.  Kitchen.  Saved money by eating in.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>I got a room here despite the bad reviews.  I found the desk help very helpful.  The cleaning staff friendly.  The room was clean.  Water was hot.  Beds a little hard.  Had everything we needed for three day stop.  Fridge.  Microwave.  Kitchen.  Saved money by eating in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r353980953-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>353980953</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Lazy Front Desk Staff</t>
+  </si>
+  <si>
+    <t>The hotel as a whole was OK, I'm used to staying ant 3.5 star hotels and above so I was pleasantly surprised upon arrival.  What was irritating was the front desk staff.  It seemed that they were never at the front desk where they belong.. every time I went up front, they were hidden in the back room.  The problem that I was having was that I was unable to access the laundry room which also had the only vending machines on property.  When I brought it to the attention of the front desk, all she said was "just keep messing with it...its not working right".  So I go back and try, try and try again with no success.  I go back to the front desk and no one is there.  I go upstairs, get my car keys, come back down and still no one up front...so I try again and still can't get in.  Other guests are trying as well.  You would think that at this point, the front desk staff would have enough sense to just open the damn door for hotel guests.  I ended up having to jump in my car and drive down the street to pick up enough drinks, water etc so that I could get through the rest of my stay.  The hotel staff needs to get a clue and they need to stay up front to be of assistance to customers, not hiding...The hotel as a whole was OK, I'm used to staying ant 3.5 star hotels and above so I was pleasantly surprised upon arrival.  What was irritating was the front desk staff.  It seemed that they were never at the front desk where they belong.. every time I went up front, they were hidden in the back room.  The problem that I was having was that I was unable to access the laundry room which also had the only vending machines on property.  When I brought it to the attention of the front desk, all she said was "just keep messing with it...its not working right".  So I go back and try, try and try again with no success.  I go back to the front desk and no one is there.  I go upstairs, get my car keys, come back down and still no one up front...so I try again and still can't get in.  Other guests are trying as well.  You would think that at this point, the front desk staff would have enough sense to just open the damn door for hotel guests.  I ended up having to jump in my car and drive down the street to pick up enough drinks, water etc so that I could get through the rest of my stay.  The hotel staff needs to get a clue and they need to stay up front to be of assistance to customers, not hiding in the back room.  i guess this is the difference between a 2 star and 3 star hotel?  The hotel also claims to serve breakfast...all they supply is hot water, coffee, oatmeal packets and granola bars...that does not qualify as breakfast as far as I'm concerned.  I don't think I would ever consider an Extended Stay hotel again.    Wifi was free, but slow.  The TV was on the small side and if you want any dishes, silverware, pots and pans for your kitchen, they are not in your room, you have to go and get them from the front desk...tacky.... My stay was on 3/7 so you lazy hotel front desk staff know who you are.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel as a whole was OK, I'm used to staying ant 3.5 star hotels and above so I was pleasantly surprised upon arrival.  What was irritating was the front desk staff.  It seemed that they were never at the front desk where they belong.. every time I went up front, they were hidden in the back room.  The problem that I was having was that I was unable to access the laundry room which also had the only vending machines on property.  When I brought it to the attention of the front desk, all she said was "just keep messing with it...its not working right".  So I go back and try, try and try again with no success.  I go back to the front desk and no one is there.  I go upstairs, get my car keys, come back down and still no one up front...so I try again and still can't get in.  Other guests are trying as well.  You would think that at this point, the front desk staff would have enough sense to just open the damn door for hotel guests.  I ended up having to jump in my car and drive down the street to pick up enough drinks, water etc so that I could get through the rest of my stay.  The hotel staff needs to get a clue and they need to stay up front to be of assistance to customers, not hiding...The hotel as a whole was OK, I'm used to staying ant 3.5 star hotels and above so I was pleasantly surprised upon arrival.  What was irritating was the front desk staff.  It seemed that they were never at the front desk where they belong.. every time I went up front, they were hidden in the back room.  The problem that I was having was that I was unable to access the laundry room which also had the only vending machines on property.  When I brought it to the attention of the front desk, all she said was "just keep messing with it...its not working right".  So I go back and try, try and try again with no success.  I go back to the front desk and no one is there.  I go upstairs, get my car keys, come back down and still no one up front...so I try again and still can't get in.  Other guests are trying as well.  You would think that at this point, the front desk staff would have enough sense to just open the damn door for hotel guests.  I ended up having to jump in my car and drive down the street to pick up enough drinks, water etc so that I could get through the rest of my stay.  The hotel staff needs to get a clue and they need to stay up front to be of assistance to customers, not hiding in the back room.  i guess this is the difference between a 2 star and 3 star hotel?  The hotel also claims to serve breakfast...all they supply is hot water, coffee, oatmeal packets and granola bars...that does not qualify as breakfast as far as I'm concerned.  I don't think I would ever consider an Extended Stay hotel again.    Wifi was free, but slow.  The TV was on the small side and if you want any dishes, silverware, pots and pans for your kitchen, they are not in your room, you have to go and get them from the front desk...tacky.... My stay was on 3/7 so you lazy hotel front desk staff know who you are.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r344629954-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>344629954</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>It Was Okay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here three days and nights. At check in be sure to get all of your kitchen items. Plates, bowls, utensils, toaster, cups etc. Ask for extra TP too.The staff was nice. If you become an Extended Stay member you can save 15%. Full size fridge. Make your own ice with the old ice cube trays. Free wifi that can be slow but you can pay for faster speeds.Lots of different folks living here. Full time families down and out being helped out by their church. Short timers like us and yes there was some Riff-Raff on Saturday night. Breakfast is a "Grab and go" in the mornings. Coffee, fruit, nature valley bars and some muffins.Rooms are cleaned every eight days so you'll have to take your dirty towels to the front desk to get clean ones.  Pets allowed on all floors.While I'm on the subject of pets ......Listen people; we all love our pets, but please don't set little "Fifi" on the front counter where folks are trying to check in, get their kitchen supplies or fresh towels. Try to use a little common sense.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here three days and nights. At check in be sure to get all of your kitchen items. Plates, bowls, utensils, toaster, cups etc. Ask for extra TP too.The staff was nice. If you become an Extended Stay member you can save 15%. Full size fridge. Make your own ice with the old ice cube trays. Free wifi that can be slow but you can pay for faster speeds.Lots of different folks living here. Full time families down and out being helped out by their church. Short timers like us and yes there was some Riff-Raff on Saturday night. Breakfast is a "Grab and go" in the mornings. Coffee, fruit, nature valley bars and some muffins.Rooms are cleaned every eight days so you'll have to take your dirty towels to the front desk to get clean ones.  Pets allowed on all floors.While I'm on the subject of pets ......Listen people; we all love our pets, but please don't set little "Fifi" on the front counter where folks are trying to check in, get their kitchen supplies or fresh towels. Try to use a little common sense.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r342461093-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>342461093</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Started out with a loose shower head that was pointed straight down, I fixed it myself. Although the bathroom had plenty of room, there was only a sink in the middle with no counter. The toilet seat was also loose. Again I tightened it up myself. Woke up in the morning with a stiff back. To top things off, it took forever to connect the Wi-Fi. A very unpleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r338521633-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>338521633</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great customer service. </t>
+  </si>
+  <si>
+    <t>I was here for a business trip. The front desk woman was such great help was really nice too. If your ever here Brenda is the one to see. Rooms are really nice. I'll be coming here next trip. Thank you Brenda for being such great help and letting me know where chipotle is. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>I was here for a business trip. The front desk woman was such great help was really nice too. If your ever here Brenda is the one to see. Rooms are really nice. I'll be coming here next trip. Thank you Brenda for being such great help and letting me know where chipotle is. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r332721204-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>332721204</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>A tiny oasis</t>
+  </si>
+  <si>
+    <t>I looked all around for a place to stay that had a kitchen and within budget, while in California, and I picked this place. We were given a room on the top floor. The room wasn't as big as I imagined but it was just right for our needs. There were some minor issues that were not deal breakers. The front desk was wonderful and gracious. The management heard about my issues and sent an email to me before I even made it home. I would use them again in a heartbeat. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>I looked all around for a place to stay that had a kitchen and within budget, while in California, and I picked this place. We were given a room on the top floor. The room wasn't as big as I imagined but it was just right for our needs. There were some minor issues that were not deal breakers. The front desk was wonderful and gracious. The management heard about my issues and sent an email to me before I even made it home. I would use them again in a heartbeat. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r326005745-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>326005745</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel for the price.</t>
+  </si>
+  <si>
+    <t>I was in Orange County on personal business and needed an inexpensive hotel.  The room was clean and the staff was friendly.  This is a no-frills hotel, but it met my needs.They do offer a grab and go breakfast and coffee bar that was well stocked.It is freeway close and is close to most of LA and OC.  Plenty of well lit parking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r325117676-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>325117676</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Satisfied customer</t>
+  </si>
+  <si>
+    <t>I was very pleased with the level of customer service i have been receiving from cristina the receptionist she has been very helpful with information regarding local dining locations and places to visit i would definitely recommend family and friends to stay at this location in the future</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r313032699-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>313032699</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Great value and very clean place to stay</t>
+  </si>
+  <si>
+    <t>Best Extended Stay America we have stayed at. Staff--especially Brenda--was great and the hotel was clean and neat. Location somewhat out of the way but convenient right off the freeway. Thanks to all the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Best Extended Stay America we have stayed at. Staff--especially Brenda--was great and the hotel was clean and neat. Location somewhat out of the way but convenient right off the freeway. Thanks to all the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r312546210-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>312546210</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Best service</t>
+  </si>
+  <si>
+    <t>I have visited this extended stay numerous times due to the amazing service. I consistently get Marlene to check me in and she goes above and beyond to make my stay convenient and enjoyable. I will continue to visit this hotel due to there service alone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>I have visited this extended stay numerous times due to the amazing service. I consistently get Marlene to check me in and she goes above and beyond to make my stay convenient and enjoyable. I will continue to visit this hotel due to there service alone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r308537432-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>308537432</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Great time</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful.  The grounds were kept very clean including the dog area.  The only issue I had was there was a funny smell in the 3rd floor hallway and it was quite warm and stuffy because the AC unit was turned off.  I turned it on myself and it was fine after that.  The coffee and breakfast bar was fully stocked which was fantastic.  The price was a little higher than I was hoping for but considering it was a busy holiday weekend it wasn't that bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful.  The grounds were kept very clean including the dog area.  The only issue I had was there was a funny smell in the 3rd floor hallway and it was quite warm and stuffy because the AC unit was turned off.  I turned it on myself and it was fine after that.  The coffee and breakfast bar was fully stocked which was fantastic.  The price was a little higher than I was hoping for but considering it was a busy holiday weekend it wasn't that bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r297720564-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>297720564</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Terrible.</t>
+  </si>
+  <si>
+    <t>I thought I was getting a good rate on this Huntington Beach location, but I got no value for my money spent.  Upon check-in, we found the kitchen counter had uncleaned spills, the walls were paper thin, the in-room refrigerator sounded like a locomotive and the bed/pillows were way to sift. Oh, and the breakfast consisted of either granola bar or plastic wrapped muffin. Not returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2015</t>
+  </si>
+  <si>
+    <t>I thought I was getting a good rate on this Huntington Beach location, but I got no value for my money spent.  Upon check-in, we found the kitchen counter had uncleaned spills, the walls were paper thin, the in-room refrigerator sounded like a locomotive and the bed/pillows were way to sift. Oh, and the breakfast consisted of either granola bar or plastic wrapped muffin. Not returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r286107210-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>286107210</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Helpful place to stay.</t>
+  </si>
+  <si>
+    <t>The hotel is a hidden Gem. The hotel is about 5 miles from the beach, very nice location. it is a safe place for RV rs I always leave my pick up loaded with bikes ice chest and other camping equipment we use when we go to the beach. The location is safe very well lighted and has security cameras for added protection.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is a hidden Gem. The hotel is about 5 miles from the beach, very nice location. it is a safe place for RV rs I always leave my pick up loaded with bikes ice chest and other camping equipment we use when we go to the beach. The location is safe very well lighted and has security cameras for added protection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r280004244-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>280004244</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Great Things To Say ---&gt; About HB Extended Stay!</t>
+  </si>
+  <si>
+    <t>E  asy 2 find location S  uper studio rooms w/lots of storage, kitchenette, full size fridge, wifiT  op notch customer serviceA  ccommodating - Management goes above &amp; beyond &amp; will work with youY  ou + pets = :) H  elpful, happy staff - esp Kyle, Christina, Diana, &amp; NickB  lows the competition away - Best Hotel Around!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>E  asy 2 find location S  uper studio rooms w/lots of storage, kitchenette, full size fridge, wifiT  op notch customer serviceA  ccommodating - Management goes above &amp; beyond &amp; will work with youY  ou + pets = :) H  elpful, happy staff - esp Kyle, Christina, Diana, &amp; NickB  lows the competition away - Best Hotel Around!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r272342692-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>272342692</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Save your money. Go to motel 6, at least they have wifi!</t>
+  </si>
+  <si>
+    <t>Came here to stay 5 nights, stayed 1 &amp; that was too long. There was poop on the mile long walkway it took us to get to our room that was far from close to any exit. Walls were so thin, our dog growled constantly because it sounded like our door was being opened over and over. Wi-Fi didn't work, and when it did it took 10 minutes to load one page. Sheets were plastic, pillows were flat. The front desk never answered when we tried calling down for a bowl for our dog. No ice bucket nor ice machine that I could see on the mile walk it took to get to our room. Don't stay here, we paid $160 and refused to stay another night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Came here to stay 5 nights, stayed 1 &amp; that was too long. There was poop on the mile long walkway it took us to get to our room that was far from close to any exit. Walls were so thin, our dog growled constantly because it sounded like our door was being opened over and over. Wi-Fi didn't work, and when it did it took 10 minutes to load one page. Sheets were plastic, pillows were flat. The front desk never answered when we tried calling down for a bowl for our dog. No ice bucket nor ice machine that I could see on the mile walk it took to get to our room. Don't stay here, we paid $160 and refused to stay another night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r269530825-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>269530825</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Convenient accommodations in the heart of Boeing</t>
+  </si>
+  <si>
+    <t>We found ourselves traveling to Huntington Beach on short notice for a family funeral. We arrived at the hotel three hours before checkout and were told no rooms were ready for check-in. We explained that we had just arrived from a four hour flight and just needed a place to change into clothes for the funeral so the front desk agent found us a room we could use temporarily. He was so gracious!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>We found ourselves traveling to Huntington Beach on short notice for a family funeral. We arrived at the hotel three hours before checkout and were told no rooms were ready for check-in. We explained that we had just arrived from a four hour flight and just needed a place to change into clothes for the funeral so the front desk agent found us a room we could use temporarily. He was so gracious!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r268839041-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>268839041</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>extended</t>
+  </si>
+  <si>
+    <t>clean inn with good service and accomdating staff.  wished they had more complete breakfast and vending machines for unforseen needs.  I agree  with scott b response that the 200 minimum character requirement is stupid for making review .concierge should  offer kitchen utensils at time of check-inMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>clean inn with good service and accomdating staff.  wished they had more complete breakfast and vending machines for unforseen needs.  I agree  with scott b response that the 200 minimum character requirement is stupid for making review .concierge should  offer kitchen utensils at time of check-inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r261769820-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>261769820</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Bare minimums</t>
+  </si>
+  <si>
+    <t>This hotel had a "breakfast" which consisted of dry packets of oatmeal and hot water along with prepackaged muffins and granola bars. Coffee was good. There were also bananas and apples. Not really a breakfast. While the room had a full kitchen there were no kitchen supplies, which had to be ordered separately, creating a hassle. Difficulty accessing the WIFI.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>This hotel had a "breakfast" which consisted of dry packets of oatmeal and hot water along with prepackaged muffins and granola bars. Coffee was good. There were also bananas and apples. Not really a breakfast. While the room had a full kitchen there were no kitchen supplies, which had to be ordered separately, creating a hassle. Difficulty accessing the WIFI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r260383180-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>260383180</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Pass on this hotel</t>
+  </si>
+  <si>
+    <t>My family and I recently stayed at this hotel. We booked through Priceline as a name your price deal. Unfortunately when you bid you have no idea where you will be staying. I have this hotel two stars because the front desk person was very friendly. As far as the room goes it was okay for the price but it smelled like dogs, it wasn't clean, we even found dog food in the room. The people staying next to us had TV on all night, luckily I was so tired I didn't care. I will definitely think twice before booking through Priceline and I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>My family and I recently stayed at this hotel. We booked through Priceline as a name your price deal. Unfortunately when you bid you have no idea where you will be staying. I have this hotel two stars because the front desk person was very friendly. As far as the room goes it was okay for the price but it smelled like dogs, it wasn't clean, we even found dog food in the room. The people staying next to us had TV on all night, luckily I was so tired I didn't care. I will definitely think twice before booking through Priceline and I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r257766035-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>257766035</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Did someone pee in the bathtub?</t>
+  </si>
+  <si>
+    <t>Have complained 3 times in the last month about the the hot water inconsistency. It is hot a few minutes then cold before the tub is full. I know the hot water tanks are bad, but they keep sending someone to check the water in my room. Trace the snake venom back to the head. It is the hot water tank not my facet in the room. Now the water is brown which is the hot water tank becoming increasingly dysfunctional. No bath tonight. My psoriasis has been getting worse - probably this dirty water. Anyway, if they gave a hoot they would not have dissed me concerning the hot water a month ago. In addition, all of the tubs surfaces are broken and pitted creating mini swimming pools for pathogens that can infect people including Ebola, HPV and Tinea. They told me they would fix the tub surfaces more than a month ago. Again empty words are the primary skills needed for employment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Have complained 3 times in the last month about the the hot water inconsistency. It is hot a few minutes then cold before the tub is full. I know the hot water tanks are bad, but they keep sending someone to check the water in my room. Trace the snake venom back to the head. It is the hot water tank not my facet in the room. Now the water is brown which is the hot water tank becoming increasingly dysfunctional. No bath tonight. My psoriasis has been getting worse - probably this dirty water. Anyway, if they gave a hoot they would not have dissed me concerning the hot water a month ago. In addition, all of the tubs surfaces are broken and pitted creating mini swimming pools for pathogens that can infect people including Ebola, HPV and Tinea. They told me they would fix the tub surfaces more than a month ago. Again empty words are the primary skills needed for employment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r241185469-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>241185469</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>I've stayed at many Extended Stay America hotels...</t>
+  </si>
+  <si>
+    <t>I recently took an 8 month cross country road trip, and stayed at several of these properties across many states. Quality does vary, from location to location. I found the Huntington Beach location to be clean and well kept. It seems to have been recently renovated--when I compare it to others I've stayed in. As, almost, always...the staff is the golden goose of these hotels. They were friendly, efficient, proactive in answering questions...like providing directions to a local restaurant, and a spot that I needed to find. Can't help but mention Nick, who trouble shot my bad remote control by bringing  batteries right to my room; and took extra time to give me lots of local information The ONLY issue I have, is a minor one. Ice. It's great that Extended Stay offers the kitchen and all the extras if you want them. Only, the fresh, clean,sanitized ice cube trays, waiting for me in the freezer....don't do me any good, if I want something cold to drink, immediately after check-in. And, (I did not ask Nick this question, but have been told no at other properties, so I'm operating under an assumption) they don't have an ice machine...:(MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>I recently took an 8 month cross country road trip, and stayed at several of these properties across many states. Quality does vary, from location to location. I found the Huntington Beach location to be clean and well kept. It seems to have been recently renovated--when I compare it to others I've stayed in. As, almost, always...the staff is the golden goose of these hotels. They were friendly, efficient, proactive in answering questions...like providing directions to a local restaurant, and a spot that I needed to find. Can't help but mention Nick, who trouble shot my bad remote control by bringing  batteries right to my room; and took extra time to give me lots of local information The ONLY issue I have, is a minor one. Ice. It's great that Extended Stay offers the kitchen and all the extras if you want them. Only, the fresh, clean,sanitized ice cube trays, waiting for me in the freezer....don't do me any good, if I want something cold to drink, immediately after check-in. And, (I did not ask Nick this question, but have been told no at other properties, so I'm operating under an assumption) they don't have an ice machine...:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r240947434-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>240947434</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Thank God the staff was awesome!!!</t>
+  </si>
+  <si>
+    <t>okay first of all the staff was awesome and Nick was the best even when he had to tell my boyfriend there was no toilet paper and you can see clearly tell he felt bad...The maid did an awful job, and I know its not their fault but their is a field across the street and the rats hang out in the bushes... But what really made check out a day early is because I found two roaches in my room now thats sad and of course Nick had to deal with it lol he was so nice he said he was gonna make a report and asked if I wanted to changed my room and of course I said no I just left early... I honestly don't know what I would have done if your staff was awful especially Nick and  the reason why he stands out the most is because I had to deal with him the most and I wouldn't want to change anything for the world.... Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>okay first of all the staff was awesome and Nick was the best even when he had to tell my boyfriend there was no toilet paper and you can see clearly tell he felt bad...The maid did an awful job, and I know its not their fault but their is a field across the street and the rats hang out in the bushes... But what really made check out a day early is because I found two roaches in my room now thats sad and of course Nick had to deal with it lol he was so nice he said he was gonna make a report and asked if I wanted to changed my room and of course I said no I just left early... I honestly don't know what I would have done if your staff was awful especially Nick and  the reason why he stands out the most is because I had to deal with him the most and I wouldn't want to change anything for the world.... Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r237355186-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>237355186</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Nice people, nasty room</t>
+  </si>
+  <si>
+    <t>Nice guy at the front desk. Unfortunately the hotel is not nearly as nice.  Our room reeked of cigarette smoke (the window was open with the fan on, trying to air it out).  So the nice guy at the front desk gave us another room. The new room stunk of mold or B.O. or grease -- I don't know, but it was not pleasant.  But I'm not about to complain a second time; they'd just think I'm the problem.  So, I went to the bathroom.  Not only was the toilet paper holder broken, but there wasn't any toilet paper in the whole room.  The nice guy at the front desk gave us a roll.  I went to sit down in the chair in the room, and realized it had a big booger smeared on it. Never mind.  When we realized that the entire "breakfast" fit on a rolling cart in the entryway, we decided to check out the kitchen area in  our room.  We realized that this supposedly "fully equipped kitchen" as the ad says, had nothing.  I don't mean not much, or not the right thing.  I mean not one fork, not one pan, not one utensil.  Nothing.   So much for cooking breakfast. Then I went to take my shower, and a spider was sitting on the towel draped over the tub and there were hairs in the drain (I could mention the black gunk around the base of...Nice guy at the front desk. Unfortunately the hotel is not nearly as nice.  Our room reeked of cigarette smoke (the window was open with the fan on, trying to air it out).  So the nice guy at the front desk gave us another room. The new room stunk of mold or B.O. or grease -- I don't know, but it was not pleasant.  But I'm not about to complain a second time; they'd just think I'm the problem.  So, I went to the bathroom.  Not only was the toilet paper holder broken, but there wasn't any toilet paper in the whole room.  The nice guy at the front desk gave us a roll.  I went to sit down in the chair in the room, and realized it had a big booger smeared on it. Never mind.  When we realized that the entire "breakfast" fit on a rolling cart in the entryway, we decided to check out the kitchen area in  our room.  We realized that this supposedly "fully equipped kitchen" as the ad says, had nothing.  I don't mean not much, or not the right thing.  I mean not one fork, not one pan, not one utensil.  Nothing.   So much for cooking breakfast. Then I went to take my shower, and a spider was sitting on the towel draped over the tub and there were hairs in the drain (I could mention the black gunk around the base of the tub and the crumbling paint or drywall around the shower head, but that might be considered picky, so I won't). Well, time to go to bed.  At least that looked nice -- until I turned down the sheet and saw brown smears on the sheets.  They smelled clean, so they were probably washed, but if I'm a housekeeper and I see brown smears on a sheet, I'm going to grab another sheet. Between that, and the crumbs on the counter, the balled up trash behind the desk, the bubbling furniture, and more, I'm not thrilled about my next two (pre-paid) nights here.  Here's my word association game for the day: "What do you think of when I say "Extended Stay America"?  My answer: "Ewwww".MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Nice guy at the front desk. Unfortunately the hotel is not nearly as nice.  Our room reeked of cigarette smoke (the window was open with the fan on, trying to air it out).  So the nice guy at the front desk gave us another room. The new room stunk of mold or B.O. or grease -- I don't know, but it was not pleasant.  But I'm not about to complain a second time; they'd just think I'm the problem.  So, I went to the bathroom.  Not only was the toilet paper holder broken, but there wasn't any toilet paper in the whole room.  The nice guy at the front desk gave us a roll.  I went to sit down in the chair in the room, and realized it had a big booger smeared on it. Never mind.  When we realized that the entire "breakfast" fit on a rolling cart in the entryway, we decided to check out the kitchen area in  our room.  We realized that this supposedly "fully equipped kitchen" as the ad says, had nothing.  I don't mean not much, or not the right thing.  I mean not one fork, not one pan, not one utensil.  Nothing.   So much for cooking breakfast. Then I went to take my shower, and a spider was sitting on the towel draped over the tub and there were hairs in the drain (I could mention the black gunk around the base of...Nice guy at the front desk. Unfortunately the hotel is not nearly as nice.  Our room reeked of cigarette smoke (the window was open with the fan on, trying to air it out).  So the nice guy at the front desk gave us another room. The new room stunk of mold or B.O. or grease -- I don't know, but it was not pleasant.  But I'm not about to complain a second time; they'd just think I'm the problem.  So, I went to the bathroom.  Not only was the toilet paper holder broken, but there wasn't any toilet paper in the whole room.  The nice guy at the front desk gave us a roll.  I went to sit down in the chair in the room, and realized it had a big booger smeared on it. Never mind.  When we realized that the entire "breakfast" fit on a rolling cart in the entryway, we decided to check out the kitchen area in  our room.  We realized that this supposedly "fully equipped kitchen" as the ad says, had nothing.  I don't mean not much, or not the right thing.  I mean not one fork, not one pan, not one utensil.  Nothing.   So much for cooking breakfast. Then I went to take my shower, and a spider was sitting on the towel draped over the tub and there were hairs in the drain (I could mention the black gunk around the base of the tub and the crumbling paint or drywall around the shower head, but that might be considered picky, so I won't). Well, time to go to bed.  At least that looked nice -- until I turned down the sheet and saw brown smears on the sheets.  They smelled clean, so they were probably washed, but if I'm a housekeeper and I see brown smears on a sheet, I'm going to grab another sheet. Between that, and the crumbs on the counter, the balled up trash behind the desk, the bubbling furniture, and more, I'm not thrilled about my next two (pre-paid) nights here.  Here's my word association game for the day: "What do you think of when I say "Extended Stay America"?  My answer: "Ewwww".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r223497809-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>223497809</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close enough for comfort </t>
+  </si>
+  <si>
+    <t>We stayed for two nights on a Friday-Saturday in August 2014.The property is conveniently located on Bolsa Chica, just north of Bolsa, next to the Boeing offices.We knew in advance it would be no frills, just didn't realize how no frills it actually was.Each unit has a kitchen with microwave, stovetop and refrigerator, along with a bathroom, flat screen TV, alarm clock, recliner chair, writing desk and bed.Coffee makers and all kitchen utensils are available no charge, but must be requested after check-in.Interesting arrangement to say the least. Maybe to keep costs down, but the literature and employees we encountered all said it was for cleanliness.Nick assisted us @ check-in and offered good directions for grocery shopping and gas stations nearbyThe rooms were comfortable and clean and the mostly industrial area lent for quiet evenings like we hoped for.The beaches are 10-15 minutes drive and reasonably easy freeway access.Free Wi Fi in the rooms and a continental breakfast in the lobby are included.Our only concern was the inordinate amount of marijuana smoke coming from the hallways.That's why we hesitate to recommend this property to families or anyone this may bother.Beyond that, we enjoyed the stay for what it was, a peaceful and stress-free weekend in the OC.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for two nights on a Friday-Saturday in August 2014.The property is conveniently located on Bolsa Chica, just north of Bolsa, next to the Boeing offices.We knew in advance it would be no frills, just didn't realize how no frills it actually was.Each unit has a kitchen with microwave, stovetop and refrigerator, along with a bathroom, flat screen TV, alarm clock, recliner chair, writing desk and bed.Coffee makers and all kitchen utensils are available no charge, but must be requested after check-in.Interesting arrangement to say the least. Maybe to keep costs down, but the literature and employees we encountered all said it was for cleanliness.Nick assisted us @ check-in and offered good directions for grocery shopping and gas stations nearbyThe rooms were comfortable and clean and the mostly industrial area lent for quiet evenings like we hoped for.The beaches are 10-15 minutes drive and reasonably easy freeway access.Free Wi Fi in the rooms and a continental breakfast in the lobby are included.Our only concern was the inordinate amount of marijuana smoke coming from the hallways.That's why we hesitate to recommend this property to families or anyone this may bother.Beyond that, we enjoyed the stay for what it was, a peaceful and stress-free weekend in the OC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r221433846-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>221433846</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Extended Stay America</t>
+  </si>
+  <si>
+    <t>This was our second time staying there. The first time was fine with normal accommodations, as well as cooking and kitchen supplies. Toiletry items such as toothpaste, shampoo, etc. were also provided. This last trip on August 8th was far different. We arrived an hour before "official check in time", and were told that there were no rooms available until check in time. So we sat in the car for an hour until a room was "ready". After getting our room we discovered we had no washcloths. We asked a housekeeper, who gave us only 2 washcloths for a 3 night stay. There were no kitchen supplies, and we were told to order them via the front desk. There were no toiletry items, and were told that they no longer supply anything but soap! We did manage to get a very small bottle of shampoo, but were told when we asked for a second bottle that they were out! We had kitchen facilities, but not even paper towels! The bathtub also had black gross hairs in it ! For a BARGAIN of $100.00 per night this was a total rip-off. P.S&gt; We had to stand in line for toilet paper!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>This was our second time staying there. The first time was fine with normal accommodations, as well as cooking and kitchen supplies. Toiletry items such as toothpaste, shampoo, etc. were also provided. This last trip on August 8th was far different. We arrived an hour before "official check in time", and were told that there were no rooms available until check in time. So we sat in the car for an hour until a room was "ready". After getting our room we discovered we had no washcloths. We asked a housekeeper, who gave us only 2 washcloths for a 3 night stay. There were no kitchen supplies, and we were told to order them via the front desk. There were no toiletry items, and were told that they no longer supply anything but soap! We did manage to get a very small bottle of shampoo, but were told when we asked for a second bottle that they were out! We had kitchen facilities, but not even paper towels! The bathtub also had black gross hairs in it ! For a BARGAIN of $100.00 per night this was a total rip-off. P.S&gt; We had to stand in line for toilet paper!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r218786751-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>218786751</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Descent stay</t>
+  </si>
+  <si>
+    <t>Best part of this hotel is the excellent, friendly staff! Kyle was great, helping us at check-in because of bank issues! Since we were staying for 6 nights, this was the best choice because of the full kitchen.  If you've never stayed at an Extended Stay, you do not have room service each day, only if you ask for it.  If you need something, you can get it yourself at the front desk (towels, toilet paper, kitchen items) or they will bring it to your room.  I like the idea of not having to worry about getting out of the room for the maids to clean.  Had some sand in the kitchen from the beach, borrowed a broom and really all we needed was supplied.  One of my biggest complaints was the fact that the bed was rock hard and only a full, but oh well.  10 minute drive to Sunset Beach/Huntington Beach, 10 minutes to a Wal-mart, 3 minutes to an Albertsons.    Grab and go breakfast is coffee, tea, oatmeal, granola bars, muffins and fruit in the lobby.  We had no problem with cleanliness as stated in the other reviews.  We would stay here again if staying for a long period of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Best part of this hotel is the excellent, friendly staff! Kyle was great, helping us at check-in because of bank issues! Since we were staying for 6 nights, this was the best choice because of the full kitchen.  If you've never stayed at an Extended Stay, you do not have room service each day, only if you ask for it.  If you need something, you can get it yourself at the front desk (towels, toilet paper, kitchen items) or they will bring it to your room.  I like the idea of not having to worry about getting out of the room for the maids to clean.  Had some sand in the kitchen from the beach, borrowed a broom and really all we needed was supplied.  One of my biggest complaints was the fact that the bed was rock hard and only a full, but oh well.  10 minute drive to Sunset Beach/Huntington Beach, 10 minutes to a Wal-mart, 3 minutes to an Albertsons.    Grab and go breakfast is coffee, tea, oatmeal, granola bars, muffins and fruit in the lobby.  We had no problem with cleanliness as stated in the other reviews.  We would stay here again if staying for a long period of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r213398793-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>213398793</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Over whelming experience for a one night stay.</t>
+  </si>
+  <si>
+    <t>Roaches, table was  dirty with caked on food. I had to ask front desk clerk for cleaning rag.  I was over  charged  on my card back to back and she could not resolve it. rotten food in cupboard. Did not meet standards of cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Huntington Beach, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Roaches, table was  dirty with caked on food. I had to ask front desk clerk for cleaning rag.  I was over  charged  on my card back to back and she could not resolve it. rotten food in cupboard. Did not meet standards of cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r211240150-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>211240150</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Good but with some details...</t>
+  </si>
+  <si>
+    <t>rooms are PERFECT!however, due what I believe is the material used to build the floor...you hear every time someone open or close their doors... Other than that. Very very good.The location is good mostly for business due to the companies nearby, however a trip to the beach takes you 10 min tops.Breakfast is a Grab and Go, so you basically have packed muffins...coffe or chocolate...Hot water and some Oats.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r211168868-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>211168868</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>They Really Go By Their Name "Extended Stay"</t>
+  </si>
+  <si>
+    <t>I was surprised to see that it's really like what they've promised in their name alone. I didn't expect that they will give me a suite with a mini kitchen in it (complete with refrigerator, sink and microwave) When I checked the drawers, there's utensils available. Everything was clean. They also have iron and ironing board. I do hope though that I won't need to go to the front desk to ask for a toothbrush and toothpaste, I also hope there's like a shampoo and other stuff in the bathroom. They have a hand and body soap though, and I also bought my hygiene kit. Anyway other than that, it was all good. I got an upgraded suite which is awesome and got a good view. The staff are all welcoming and friendly from the front desk, to the housekeeping and up to the repair guys. I would highly recommend this place to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was surprised to see that it's really like what they've promised in their name alone. I didn't expect that they will give me a suite with a mini kitchen in it (complete with refrigerator, sink and microwave) When I checked the drawers, there's utensils available. Everything was clean. They also have iron and ironing board. I do hope though that I won't need to go to the front desk to ask for a toothbrush and toothpaste, I also hope there's like a shampoo and other stuff in the bathroom. They have a hand and body soap though, and I also bought my hygiene kit. Anyway other than that, it was all good. I got an upgraded suite which is awesome and got a good view. The staff are all welcoming and friendly from the front desk, to the housekeeping and up to the repair guys. I would highly recommend this place to everyone!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2175,4049 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>129</v>
+      </c>
+      <c r="X10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>138</v>
+      </c>
+      <c r="X11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>331</v>
+      </c>
+      <c r="X36" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s">
+        <v>338</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J38" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s">
+        <v>343</v>
+      </c>
+      <c r="L38" t="s">
+        <v>344</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>345</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>345</v>
+      </c>
+      <c r="O39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X40" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>361</v>
+      </c>
+      <c r="J41" t="s">
+        <v>362</v>
+      </c>
+      <c r="K41" t="s">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s">
+        <v>364</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>365</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>377</v>
+      </c>
+      <c r="L43" t="s">
+        <v>378</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>381</v>
+      </c>
+      <c r="J44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" t="s">
+        <v>383</v>
+      </c>
+      <c r="L44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>385</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>411</v>
+      </c>
+      <c r="X47" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>414</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K48" t="s">
+        <v>417</v>
+      </c>
+      <c r="L48" t="s">
+        <v>418</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>419</v>
+      </c>
+      <c r="O48" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>420</v>
+      </c>
+      <c r="X48" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>424</v>
+      </c>
+      <c r="J49" t="s">
+        <v>425</v>
+      </c>
+      <c r="K49" t="s">
+        <v>426</v>
+      </c>
+      <c r="L49" t="s">
+        <v>427</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>428</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>429</v>
+      </c>
+      <c r="X49" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>432</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>433</v>
+      </c>
+      <c r="J50" t="s">
+        <v>434</v>
+      </c>
+      <c r="K50" t="s">
+        <v>435</v>
+      </c>
+      <c r="L50" t="s">
+        <v>436</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>437</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>438</v>
+      </c>
+      <c r="X50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s">
+        <v>445</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>446</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>447</v>
+      </c>
+      <c r="X51" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>446</v>
+      </c>
+      <c r="O52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>455</v>
+      </c>
+      <c r="X52" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>462</v>
+      </c>
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>463</v>
+      </c>
+      <c r="X53" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>466</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>467</v>
+      </c>
+      <c r="J54" t="s">
+        <v>468</v>
+      </c>
+      <c r="K54" t="s">
+        <v>469</v>
+      </c>
+      <c r="L54" t="s">
+        <v>470</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>471</v>
+      </c>
+      <c r="O54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>472</v>
+      </c>
+      <c r="X54" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>476</v>
+      </c>
+      <c r="J55" t="s">
+        <v>477</v>
+      </c>
+      <c r="K55" t="s">
+        <v>478</v>
+      </c>
+      <c r="L55" t="s">
+        <v>479</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>480</v>
+      </c>
+      <c r="X55" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>483</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>484</v>
+      </c>
+      <c r="J56" t="s">
+        <v>485</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+      <c r="L56" t="s">
+        <v>487</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>496</v>
+      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>499</v>
+      </c>
+      <c r="J58" t="s">
+        <v>500</v>
+      </c>
+      <c r="K58" t="s">
+        <v>501</v>
+      </c>
+      <c r="L58" t="s">
+        <v>502</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>503</v>
+      </c>
+      <c r="O58" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>504</v>
+      </c>
+      <c r="X58" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>507</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>508</v>
+      </c>
+      <c r="J59" t="s">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s">
+        <v>511</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>512</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>513</v>
+      </c>
+      <c r="X59" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>516</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>517</v>
+      </c>
+      <c r="J60" t="s">
+        <v>518</v>
+      </c>
+      <c r="K60" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" t="s">
+        <v>520</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>512</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>521</v>
+      </c>
+      <c r="X60" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>524</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>525</v>
+      </c>
+      <c r="J61" t="s">
+        <v>526</v>
+      </c>
+      <c r="K61" t="s">
+        <v>527</v>
+      </c>
+      <c r="L61" t="s">
+        <v>528</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>529</v>
+      </c>
+      <c r="O61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>530</v>
+      </c>
+      <c r="X61" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>533</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>534</v>
+      </c>
+      <c r="J62" t="s">
+        <v>535</v>
+      </c>
+      <c r="K62" t="s">
+        <v>536</v>
+      </c>
+      <c r="L62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>538</v>
+      </c>
+      <c r="X62" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>541</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>542</v>
+      </c>
+      <c r="J63" t="s">
+        <v>543</v>
+      </c>
+      <c r="K63" t="s">
+        <v>544</v>
+      </c>
+      <c r="L63" t="s">
+        <v>545</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>546</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37434</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>547</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>548</v>
+      </c>
+      <c r="J64" t="s">
+        <v>549</v>
+      </c>
+      <c r="K64" t="s">
+        <v>550</v>
+      </c>
+      <c r="L64" t="s">
+        <v>551</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>546</v>
+      </c>
+      <c r="O64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>552</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Baltazar M</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I have to admit this place is great. The staff was wonderful great hospitality and the room I stayed in was spotless. The housekeepers are nice and helpful. This is my new place to stay and I highly recommend itMore</t>
   </si>
   <si>
+    <t>007Syl007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r574843499-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Have you ever walked in on someone boning? Well I have! On my stay here I forcible, because I thought it was my room, tried to get into the room. After a few attempts I got in and therefore it was before me! All the front desk people said was "sorry." They had no more rooms. However they did put is in a room with one queen bed and even at that it smelled like dog pee. What a wonderful stay with the extended stay.... never again!!!More</t>
   </si>
   <si>
+    <t>reidd721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r569097779-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>The place is a little hidden because it is behind Boeing but the scenery is nice. It is very quiet and had a full nights rest. I love the customer service I got from Anna. She was so helpful, guiding me to food areas and things to do around the beach. I was satisfied with my room. I double checked behind and under bed for any trash but the room was spotless. This is definitely my first choice when I come back to this side of town.More</t>
   </si>
   <si>
+    <t>Robert F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r563424454-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Hotel is very clean. My room smell nice and I even inspected for any trash and couldn't find none. Anna was amazing and made my stay very pleasant. Thank you Anna for making my experience there Superb. Also the house keepers Alejandra and Mayra thank you. anytime I needed extra shampoo with no hesitation they would give me these amenities.More</t>
   </si>
   <si>
+    <t>A1802BFheathers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r552240721-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>Room smelled like a litter box it was nauseating. Promised breakfast was non-existent....coffee (with out even milk offered to go with just nasty sugared creamer that people watching their sugar can't have). Granola bars and ONE kind of oatmeal (cinnamon which my daughter won't touch). Not so much as a glass or ice bucket in the room, had to go to front desk for that and an extra blanket. Took a shower and wiped the wet floor up and the towel cane back black!!! So nasty, like when was the last time the bathroom got a real clean!?!?!? We had been looking for something a little nicer than Motel 6 to stay with our dog, next time we'll stay there!!! Motel 6 is way cheaper, cleaner and at least has cups in the room so your not hunting after a long trip! We'll stay elsewhere next time. More</t>
   </si>
   <si>
+    <t>KAL3145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r546270155-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -336,6 +354,9 @@
     <t>I have at this hotel three times in the past four months while visiting an ill relative in the area. This was my first experience with Extended Stay and I was very impressed.  Nothing fancy but everything you need for a very good price, particularly in a very expensive part of the country.  Staff was friendly and helpful.  Room was clean and comfortable. I will definitely stay there again.More</t>
   </si>
   <si>
+    <t>kerryt108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r532642389-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -363,6 +384,9 @@
     <t>I arrived there late but the staff was very accommodating. There was a little problem concerning cancelling a reservation but management was informed and I was refunded my payment. Also, the full size frig and kitchen area was very nice. More</t>
   </si>
   <si>
+    <t>kittykubiak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r531488185-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -390,6 +414,9 @@
     <t>I was in Huntinton Beach for health reasons and was having quite a bit of discomfort and mobility issures, and the staff was always there to help. And they were very sweet to my cat, who is great emotional support to me.More</t>
   </si>
   <si>
+    <t>AdvisinYourTrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r525609445-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -414,6 +441,9 @@
     <t>Free continental breakfast while supplies last. Clean room. Quiet atmosphere. Parking available all around the hotel. Anna was the one who helped me. She was kind and very hospitable. No problems here!More</t>
   </si>
   <si>
+    <t>563patriciaam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r507286088-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -441,6 +471,9 @@
     <t>Although this hotel is in a business area, it is close to beaches.  Food and shopping nearby, but area is quiet and peaceful.  Facilities are nice and clean with lots of parking.  Grab and Go breakfast is great if you are in a hurry and just want something to go as you head out of the door.More</t>
   </si>
   <si>
+    <t>286thait</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r506365231-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -465,6 +498,9 @@
     <t>Hotel room and hallway smell...  Bed sizes are uncomfortable.....There's no refreshment drink for customers in the lobby.  Also have no garbage trash outside lobby hotel. Please order a vending machine so people can get refreshment when needed.More</t>
   </si>
   <si>
+    <t>shawnfjohnson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r503716937-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -492,6 +528,9 @@
     <t>Everything was horriblebed was uncomfortableno wake up callrequested to change the sheets, they said you do itroom wasn't cleannot enough cable channelsno cups in the roombad internet receptionMore</t>
   </si>
   <si>
+    <t>B2366MMjohng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r501664222-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -516,6 +555,9 @@
     <t>Disgusting excuse for a hotel... see photos. Inept staff, put us in a dirty un-made room upon check in at 3 AM... moved to a filthy made up room. No ice on property, no coffee in room, crappy bedding, photo copied ID and credit card... refused to return or destroy upon request, middle of nowhere, complained to front desk and was told "sorry bout that" and given managers card as the manager doesn't work until 11 am. 150 per night for this as well...More</t>
   </si>
   <si>
+    <t>Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r501802767-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>I already knew that Extended Stay hotels were clean and comfortable.  The location of this hotel was perfect for our needs and the gal that helped us check in was so sweet and efficient.  We didn't stay long enough to use the kitchen but I could sure see what a great addition that would be for a longer stay.More</t>
   </si>
   <si>
+    <t>63selenaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r500125368-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>A+ on all items.  I know you will be pleased also.  They made the check-in easy and fast.  No hassle.  When we got to the room it was super clean and beautiful.  The only negative is that there was no breakfast.  Oh well.More</t>
   </si>
   <si>
+    <t>albertotX1768IM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r495037600-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>I loved this place. I had never stayed in this hotel chain before. for my surprise and delight it was very clean, safe, the room is perfect for long or short stay and great staff. I highly recommend it. The location is very convenient close to the freeway and other local restaurants.More</t>
   </si>
   <si>
+    <t>amberr366</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r494393222-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>I guess I didn't read too much on the breakfast included. It was just a mini bar in front of check in that included just coffee, muffins and granola bars. We had to ask for kitchen utensils/silverware. Nothing was in the cabinets. Had to ask for more toilet paper since no one had cleaned the rooms during our 3 night stay. Had a full bag of garbage outside the door, hoping someone would pick it up. After asking front desk about garbage pick up, we were then informed about a trash room where you have to dispose it yourself. More</t>
   </si>
   <si>
+    <t>nicolebN6931HB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r494255286-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Great room and great service at the front desk. Very personable. It didn't feel fake or forced like at other chain hotels. Good vibes. I highly recommend to anyone. Especially those with dogs, there were many people staying with dogs I loved it. More</t>
   </si>
   <si>
+    <t>Erica K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r492517427-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>Once again my travels brought me back to the Extended Stay. It is in my opinion the best deal around for all of my needs. They are pet friendly &amp; have full sized refrigerators, parking is not a hassle &amp; it's free. Every time I've stayed here in the past I've been greeted by the most wonderful staff in the hotel business, Jocelyn &amp; Rosie. All of the front desk girls greet me by my first name &amp; are so helpful &amp; friendly every single day. Rosie's customer service skills are outstanding. She will go out of her way to go the extra mile in making sure your stay is comfortable &amp; enjoyable, as well as making sure you have everything you need. Rosie &amp; Jocelyn have been so helpful &amp; kind to me during my stays here, it's one of the reasons I keep coming back &amp; will continue to come back so long as either one of them still work here. More</t>
   </si>
   <si>
+    <t>derrickmarbrough</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r483572136-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Rosie and Christina are such sweet hearts great customer service.so what makes these ladies stand out is the fact that there kind rosie always smiling making sure we were well taken care of. Also has coffee all night. Christina was always moving back and forth busy but still was so kind when we checked outMore</t>
   </si>
   <si>
+    <t>Michelle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r480757636-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>Rooms are great, very clean. Pet friendly, I brought my two dogs a long with me and it has been great so far! Jocelyn so far has been my favorite on the staff. She is extremely helpful she goes above and beyond for not only me but other guests that I have witnessed her help.  Keep up the great customer serviceMore</t>
   </si>
   <si>
+    <t>FSmulders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r466287324-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -744,6 +810,9 @@
     <t>I stay at this hotel from time to time &amp; have always found the customer service to be exceptional. The front desk girls are so professional &amp; kind. Their helpfulness is uncompromising. Two in particular, Jocelyn &amp; Rosie are such a pleasure to deal with. Their professionalism is comparable to that of a 4 or 5 star hotel, such as the Hilton. All of the employees from the front desk to housekeeping make my stay here enjoyable &amp; peaceful with no stresses whatsoever. The rooms are always clean &amp; smell fresh. They offer a 24 hour laundry facility, free coffee all day in the lobby &amp; a free grab &amp; go breakfast every morning, also in the lobby. The kitchens are huge with a full size refrigerator and upon request will be equipped with all of the basics for you to prepare your own meals. The bathrooms appear to be updated as well. The grounds are clean and well maintained. This particular property is quiet &amp; surrounded by businesses only. I would definitely recommend to anyone who's looking to stay in HB for a while, book a room here! You won't regret it.More</t>
   </si>
   <si>
+    <t>Tony C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r457993846-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -759,6 +828,9 @@
     <t xml:space="preserve">We got a really great deal on Priceline.com and very pleased with the price and hotel. Rosie at the front desk went above and beyond. She was so kind &amp; friendly and made my birthday very special. The room was clean and comfy. </t>
   </si>
   <si>
+    <t>Lynn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r455094809-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -786,6 +858,9 @@
     <t>The staff is excellent here at Extended Stay. One particular person comes to mind as I'm typing this review. Her name is Rosie. She is very attentive to guests questions and needs. She is always smiling and will always ask how your day is. This is the type of service we should all expect. Thank you so much for making my stay comfortable.More</t>
   </si>
   <si>
+    <t>superstarprjay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r452929036-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -810,6 +885,9 @@
     <t>I'm constantly traveling to Orange County for work &amp; I always stay at this hotel. I love that they have a kitchen &amp; they're close to shopping areas. The rooms are clean with plenty of space to feel comfortable in &amp; the front desk staff; Jocelyn, Cristina, Bree &amp; Rosie are always super helpful &amp; nice. I definitely recommend staying here if you're looking for a clean &amp; quite place to stay that's not too far from the beach &amp; shopping.More</t>
   </si>
   <si>
+    <t>brettl420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r451714853-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -828,6 +906,9 @@
     <t>The hotel itself isn't too bad. It's not fancy but it isn't terrible. Rooms are clean. Rooms are large with little kitchenettes. There are no cutlery plates bowls cups or anything though. Every drawer in the room was open when I arrived. Rooms are a bit dated but nothing out of the ordinary. Late check in was horrendous though. This place is so cheap it doesn't even have a nigh staff at the desk. You have to TRY to check in with a housekeeper who doesn't speak great English. She had a reservation for me. Showed me the paper with my name and still said she didn't have a key for me? After traveling for 9 hours I just wanted to get some sleep. The check in process at 1130pm took over half an hour!!! She couldn't care less either while she attempted to call a number of employees who wouldn't answer the phone. After writing down my credit card info and drivers license I finally got my key. She didn't tell me where my room was located or where the elevators are or anything. Probably the worst check in experience I have ever had. Youd think it was in the middle of the night but this wasn't even midnight!! More</t>
   </si>
   <si>
+    <t>Jon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r444343716-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -852,6 +933,9 @@
     <t>Everyone was pleasant at the extended stay and Rosie was very nice at the desk as well. From silverware and kitchen stuff to fresh coffee and forgotten room keys she was there at all hours...Def recommend the stay here and the location is good too...More</t>
   </si>
   <si>
+    <t>ladytastebuds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r443332807-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -876,6 +960,9 @@
     <t>Great location, clean room and friendly and accommodating front desk personnel. Her name is Rosie at we checked in around 1045 pm. She was almost done with her shift at 11pm but did not make that noticeable what so ever even though she helped us past her shift end. She was very patient and friendly. I asked if she was working graveyard shift for personal reasons and that's when I realized she patiently was working with us when she was off. Thank you Rosie More</t>
   </si>
   <si>
+    <t>jkerrt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r439391010-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -903,6 +990,9 @@
     <t>This is the 4th time I've been to this hotel. Today I was greeted by Rosie at the front desk again. Rosie always takes care of any issues with a smile and makes it. Ice to come back here. I will definitely continue to use this hotel. It's clean and comfortable - a little off the beaten path but close enough as to not be inconvenient.More</t>
   </si>
   <si>
+    <t>Lauriespics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r416821356-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -930,6 +1020,9 @@
     <t>Stayed here for an overnight business trip. Room was clean. Floor was quiet. The bed was just ok. The bathroom was clean. This hotel features kitchenettes and you can get your kitchen items from the front desk. Continental breakfast in the mornings was offered. The front desk staff was so friendly and helpful! She gave me info on places to eat and was just great!More</t>
   </si>
   <si>
+    <t>empirecat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r386621017-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -948,6 +1041,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r366557685-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -975,6 +1071,9 @@
     <t>This hotel is right next to Boeing the air plane maker and so at times the rates fluctuate a bit. It's very clean and quiet in a nice location. Very peaceful to rest I would say. You can stay 60 days or more and get a good discount off the room rate. The manager is very nice here. We love the staff as wellMore</t>
   </si>
   <si>
+    <t>ronb753</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r356535357-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -993,6 +1092,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>CaneMaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r355016683-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1020,6 +1122,9 @@
     <t>I got a room here despite the bad reviews.  I found the desk help very helpful.  The cleaning staff friendly.  The room was clean.  Water was hot.  Beds a little hard.  Had everything we needed for three day stop.  Fridge.  Microwave.  Kitchen.  Saved money by eating in.More</t>
   </si>
   <si>
+    <t>Cooking_Hawaiian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r353980953-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1038,6 +1143,9 @@
     <t>The hotel as a whole was OK, I'm used to staying ant 3.5 star hotels and above so I was pleasantly surprised upon arrival.  What was irritating was the front desk staff.  It seemed that they were never at the front desk where they belong.. every time I went up front, they were hidden in the back room.  The problem that I was having was that I was unable to access the laundry room which also had the only vending machines on property.  When I brought it to the attention of the front desk, all she said was "just keep messing with it...its not working right".  So I go back and try, try and try again with no success.  I go back to the front desk and no one is there.  I go upstairs, get my car keys, come back down and still no one up front...so I try again and still can't get in.  Other guests are trying as well.  You would think that at this point, the front desk staff would have enough sense to just open the damn door for hotel guests.  I ended up having to jump in my car and drive down the street to pick up enough drinks, water etc so that I could get through the rest of my stay.  The hotel staff needs to get a clue and they need to stay up front to be of assistance to customers, not hiding...The hotel as a whole was OK, I'm used to staying ant 3.5 star hotels and above so I was pleasantly surprised upon arrival.  What was irritating was the front desk staff.  It seemed that they were never at the front desk where they belong.. every time I went up front, they were hidden in the back room.  The problem that I was having was that I was unable to access the laundry room which also had the only vending machines on property.  When I brought it to the attention of the front desk, all she said was "just keep messing with it...its not working right".  So I go back and try, try and try again with no success.  I go back to the front desk and no one is there.  I go upstairs, get my car keys, come back down and still no one up front...so I try again and still can't get in.  Other guests are trying as well.  You would think that at this point, the front desk staff would have enough sense to just open the damn door for hotel guests.  I ended up having to jump in my car and drive down the street to pick up enough drinks, water etc so that I could get through the rest of my stay.  The hotel staff needs to get a clue and they need to stay up front to be of assistance to customers, not hiding in the back room.  i guess this is the difference between a 2 star and 3 star hotel?  The hotel also claims to serve breakfast...all they supply is hot water, coffee, oatmeal packets and granola bars...that does not qualify as breakfast as far as I'm concerned.  I don't think I would ever consider an Extended Stay hotel again.    Wifi was free, but slow.  The TV was on the small side and if you want any dishes, silverware, pots and pans for your kitchen, they are not in your room, you have to go and get them from the front desk...tacky.... My stay was on 3/7 so you lazy hotel front desk staff know who you are.More</t>
   </si>
   <si>
+    <t>longball44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r344629954-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1059,6 +1167,9 @@
     <t>My wife and I stayed here three days and nights. At check in be sure to get all of your kitchen items. Plates, bowls, utensils, toaster, cups etc. Ask for extra TP too.The staff was nice. If you become an Extended Stay member you can save 15%. Full size fridge. Make your own ice with the old ice cube trays. Free wifi that can be slow but you can pay for faster speeds.Lots of different folks living here. Full time families down and out being helped out by their church. Short timers like us and yes there was some Riff-Raff on Saturday night. Breakfast is a "Grab and go" in the mornings. Coffee, fruit, nature valley bars and some muffins.Rooms are cleaned every eight days so you'll have to take your dirty towels to the front desk to get clean ones.  Pets allowed on all floors.While I'm on the subject of pets ......Listen people; we all love our pets, but please don't set little "Fifi" on the front counter where folks are trying to check in, get their kitchen supplies or fresh towels. Try to use a little common sense.More</t>
   </si>
   <si>
+    <t>Michael H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r342461093-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1074,6 +1185,9 @@
     <t>Started out with a loose shower head that was pointed straight down, I fixed it myself. Although the bathroom had plenty of room, there was only a sink in the middle with no counter. The toilet seat was also loose. Again I tightened it up myself. Woke up in the morning with a stiff back. To top things off, it took forever to connect the Wi-Fi. A very unpleasant stay.</t>
   </si>
   <si>
+    <t>gallo7319</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r338521633-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1098,6 +1212,9 @@
     <t>I was here for a business trip. The front desk woman was such great help was really nice too. If your ever here Brenda is the one to see. Rooms are really nice. I'll be coming here next trip. Thank you Brenda for being such great help and letting me know where chipotle is. More</t>
   </si>
   <si>
+    <t>Katie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r332721204-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1125,6 +1242,9 @@
     <t>I looked all around for a place to stay that had a kitchen and within budget, while in California, and I picked this place. We were given a room on the top floor. The room wasn't as big as I imagined but it was just right for our needs. There were some minor issues that were not deal breakers. The front desk was wonderful and gracious. The management heard about my issues and sent an email to me before I even made it home. I would use them again in a heartbeat. More</t>
   </si>
   <si>
+    <t>Andrew D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r326005745-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1140,6 +1260,9 @@
     <t>I was in Orange County on personal business and needed an inexpensive hotel.  The room was clean and the staff was friendly.  This is a no-frills hotel, but it met my needs.They do offer a grab and go breakfast and coffee bar that was well stocked.It is freeway close and is close to most of LA and OC.  Plenty of well lit parking.</t>
   </si>
   <si>
+    <t>Carlos A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r325117676-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1158,6 +1281,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Larry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r313032699-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1185,6 +1311,9 @@
     <t>Best Extended Stay America we have stayed at. Staff--especially Brenda--was great and the hotel was clean and neat. Location somewhat out of the way but convenient right off the freeway. Thanks to all the staff!More</t>
   </si>
   <si>
+    <t>George L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r312546210-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1209,6 +1338,9 @@
     <t>I have visited this extended stay numerous times due to the amazing service. I consistently get Marlene to check me in and she goes above and beyond to make my stay convenient and enjoyable. I will continue to visit this hotel due to there service alone!More</t>
   </si>
   <si>
+    <t>Megan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r308537432-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1233,6 +1365,9 @@
     <t>The staff was very friendly and helpful.  The grounds were kept very clean including the dog area.  The only issue I had was there was a funny smell in the 3rd floor hallway and it was quite warm and stuffy because the AC unit was turned off.  I turned it on myself and it was fine after that.  The coffee and breakfast bar was fully stocked which was fantastic.  The price was a little higher than I was hoping for but considering it was a busy holiday weekend it wasn't that bad.More</t>
   </si>
   <si>
+    <t>Laurabelle927</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r297720564-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1260,6 +1395,9 @@
     <t>I thought I was getting a good rate on this Huntington Beach location, but I got no value for my money spent.  Upon check-in, we found the kitchen counter had uncleaned spills, the walls were paper thin, the in-room refrigerator sounded like a locomotive and the bed/pillows were way to sift. Oh, and the breakfast consisted of either granola bar or plastic wrapped muffin. Not returning.More</t>
   </si>
   <si>
+    <t>James N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r286107210-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1287,6 +1425,9 @@
     <t>The hotel is a hidden Gem. The hotel is about 5 miles from the beach, very nice location. it is a safe place for RV rs I always leave my pick up loaded with bikes ice chest and other camping equipment we use when we go to the beach. The location is safe very well lighted and has security cameras for added protection.More</t>
   </si>
   <si>
+    <t>rachel m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r280004244-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1314,6 +1455,9 @@
     <t>E  asy 2 find location S  uper studio rooms w/lots of storage, kitchenette, full size fridge, wifiT  op notch customer serviceA  ccommodating - Management goes above &amp; beyond &amp; will work with youY  ou + pets = :) H  elpful, happy staff - esp Kyle, Christina, Diana, &amp; NickB  lows the competition away - Best Hotel Around!More</t>
   </si>
   <si>
+    <t>Cheri Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r272342692-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1341,6 +1485,9 @@
     <t>Came here to stay 5 nights, stayed 1 &amp; that was too long. There was poop on the mile long walkway it took us to get to our room that was far from close to any exit. Walls were so thin, our dog growled constantly because it sounded like our door was being opened over and over. Wi-Fi didn't work, and when it did it took 10 minutes to load one page. Sheets were plastic, pillows were flat. The front desk never answered when we tried calling down for a bowl for our dog. No ice bucket nor ice machine that I could see on the mile walk it took to get to our room. Don't stay here, we paid $160 and refused to stay another night.More</t>
   </si>
   <si>
+    <t>GlobalDaytripper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r269530825-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1368,6 +1515,9 @@
     <t>We found ourselves traveling to Huntington Beach on short notice for a family funeral. We arrived at the hotel three hours before checkout and were told no rooms were ready for check-in. We explained that we had just arrived from a four hour flight and just needed a place to change into clothes for the funeral so the front desk agent found us a room we could use temporarily. He was so gracious!More</t>
   </si>
   <si>
+    <t>Lorenzo G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r268839041-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1389,6 +1539,9 @@
     <t>clean inn with good service and accomdating staff.  wished they had more complete breakfast and vending machines for unforseen needs.  I agree  with scott b response that the 200 minimum character requirement is stupid for making review .concierge should  offer kitchen utensils at time of check-inMore</t>
   </si>
   <si>
+    <t>Ruth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r261769820-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1416,6 +1569,9 @@
     <t>This hotel had a "breakfast" which consisted of dry packets of oatmeal and hot water along with prepackaged muffins and granola bars. Coffee was good. There were also bananas and apples. Not really a breakfast. While the room had a full kitchen there were no kitchen supplies, which had to be ordered separately, creating a hassle. Difficulty accessing the WIFI.More</t>
   </si>
   <si>
+    <t>Blanca G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r260383180-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1443,6 +1599,9 @@
     <t>My family and I recently stayed at this hotel. We booked through Priceline as a name your price deal. Unfortunately when you bid you have no idea where you will be staying. I have this hotel two stars because the front desk person was very friendly. As far as the room goes it was okay for the price but it smelled like dogs, it wasn't clean, we even found dog food in the room. The people staying next to us had TV on all night, luckily I was so tired I didn't care. I will definitely think twice before booking through Priceline and I would not stay here again.More</t>
   </si>
   <si>
+    <t>Meauxdem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r257766035-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1467,6 +1626,9 @@
     <t>Have complained 3 times in the last month about the the hot water inconsistency. It is hot a few minutes then cold before the tub is full. I know the hot water tanks are bad, but they keep sending someone to check the water in my room. Trace the snake venom back to the head. It is the hot water tank not my facet in the room. Now the water is brown which is the hot water tank becoming increasingly dysfunctional. No bath tonight. My psoriasis has been getting worse - probably this dirty water. Anyway, if they gave a hoot they would not have dissed me concerning the hot water a month ago. In addition, all of the tubs surfaces are broken and pitted creating mini swimming pools for pathogens that can infect people including Ebola, HPV and Tinea. They told me they would fix the tub surfaces more than a month ago. Again empty words are the primary skills needed for employment.More</t>
   </si>
   <si>
+    <t>BizTraveler_NYC1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r241185469-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1491,6 +1653,9 @@
     <t>I recently took an 8 month cross country road trip, and stayed at several of these properties across many states. Quality does vary, from location to location. I found the Huntington Beach location to be clean and well kept. It seems to have been recently renovated--when I compare it to others I've stayed in. As, almost, always...the staff is the golden goose of these hotels. They were friendly, efficient, proactive in answering questions...like providing directions to a local restaurant, and a spot that I needed to find. Can't help but mention Nick, who trouble shot my bad remote control by bringing  batteries right to my room; and took extra time to give me lots of local information The ONLY issue I have, is a minor one. Ice. It's great that Extended Stay offers the kitchen and all the extras if you want them. Only, the fresh, clean,sanitized ice cube trays, waiting for me in the freezer....don't do me any good, if I want something cold to drink, immediately after check-in. And, (I did not ask Nick this question, but have been told no at other properties, so I'm operating under an assumption) they don't have an ice machine...:(More</t>
   </si>
   <si>
+    <t>Sharon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r240947434-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1512,6 +1677,9 @@
     <t>okay first of all the staff was awesome and Nick was the best even when he had to tell my boyfriend there was no toilet paper and you can see clearly tell he felt bad...The maid did an awful job, and I know its not their fault but their is a field across the street and the rats hang out in the bushes... But what really made check out a day early is because I found two roaches in my room now thats sad and of course Nick had to deal with it lol he was so nice he said he was gonna make a report and asked if I wanted to changed my room and of course I said no I just left early... I honestly don't know what I would have done if your staff was awful especially Nick and  the reason why he stands out the most is because I had to deal with him the most and I wouldn't want to change anything for the world.... Thank youMore</t>
   </si>
   <si>
+    <t>Jim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r237355186-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1539,6 +1707,9 @@
     <t>Nice guy at the front desk. Unfortunately the hotel is not nearly as nice.  Our room reeked of cigarette smoke (the window was open with the fan on, trying to air it out).  So the nice guy at the front desk gave us another room. The new room stunk of mold or B.O. or grease -- I don't know, but it was not pleasant.  But I'm not about to complain a second time; they'd just think I'm the problem.  So, I went to the bathroom.  Not only was the toilet paper holder broken, but there wasn't any toilet paper in the whole room.  The nice guy at the front desk gave us a roll.  I went to sit down in the chair in the room, and realized it had a big booger smeared on it. Never mind.  When we realized that the entire "breakfast" fit on a rolling cart in the entryway, we decided to check out the kitchen area in  our room.  We realized that this supposedly "fully equipped kitchen" as the ad says, had nothing.  I don't mean not much, or not the right thing.  I mean not one fork, not one pan, not one utensil.  Nothing.   So much for cooking breakfast. Then I went to take my shower, and a spider was sitting on the towel draped over the tub and there were hairs in the drain (I could mention the black gunk around the base of...Nice guy at the front desk. Unfortunately the hotel is not nearly as nice.  Our room reeked of cigarette smoke (the window was open with the fan on, trying to air it out).  So the nice guy at the front desk gave us another room. The new room stunk of mold or B.O. or grease -- I don't know, but it was not pleasant.  But I'm not about to complain a second time; they'd just think I'm the problem.  So, I went to the bathroom.  Not only was the toilet paper holder broken, but there wasn't any toilet paper in the whole room.  The nice guy at the front desk gave us a roll.  I went to sit down in the chair in the room, and realized it had a big booger smeared on it. Never mind.  When we realized that the entire "breakfast" fit on a rolling cart in the entryway, we decided to check out the kitchen area in  our room.  We realized that this supposedly "fully equipped kitchen" as the ad says, had nothing.  I don't mean not much, or not the right thing.  I mean not one fork, not one pan, not one utensil.  Nothing.   So much for cooking breakfast. Then I went to take my shower, and a spider was sitting on the towel draped over the tub and there were hairs in the drain (I could mention the black gunk around the base of the tub and the crumbling paint or drywall around the shower head, but that might be considered picky, so I won't). Well, time to go to bed.  At least that looked nice -- until I turned down the sheet and saw brown smears on the sheets.  They smelled clean, so they were probably washed, but if I'm a housekeeper and I see brown smears on a sheet, I'm going to grab another sheet. Between that, and the crumbs on the counter, the balled up trash behind the desk, the bubbling furniture, and more, I'm not thrilled about my next two (pre-paid) nights here.  Here's my word association game for the day: "What do you think of when I say "Extended Stay America"?  My answer: "Ewwww".More</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r223497809-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1566,6 +1737,9 @@
     <t>We stayed for two nights on a Friday-Saturday in August 2014.The property is conveniently located on Bolsa Chica, just north of Bolsa, next to the Boeing offices.We knew in advance it would be no frills, just didn't realize how no frills it actually was.Each unit has a kitchen with microwave, stovetop and refrigerator, along with a bathroom, flat screen TV, alarm clock, recliner chair, writing desk and bed.Coffee makers and all kitchen utensils are available no charge, but must be requested after check-in.Interesting arrangement to say the least. Maybe to keep costs down, but the literature and employees we encountered all said it was for cleanliness.Nick assisted us @ check-in and offered good directions for grocery shopping and gas stations nearbyThe rooms were comfortable and clean and the mostly industrial area lent for quiet evenings like we hoped for.The beaches are 10-15 minutes drive and reasonably easy freeway access.Free Wi Fi in the rooms and a continental breakfast in the lobby are included.Our only concern was the inordinate amount of marijuana smoke coming from the hallways.That's why we hesitate to recommend this property to families or anyone this may bother.Beyond that, we enjoyed the stay for what it was, a peaceful and stress-free weekend in the OC.More</t>
   </si>
   <si>
+    <t>Sydnehoiness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r221433846-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1590,6 +1764,9 @@
     <t>This was our second time staying there. The first time was fine with normal accommodations, as well as cooking and kitchen supplies. Toiletry items such as toothpaste, shampoo, etc. were also provided. This last trip on August 8th was far different. We arrived an hour before "official check in time", and were told that there were no rooms available until check in time. So we sat in the car for an hour until a room was "ready". After getting our room we discovered we had no washcloths. We asked a housekeeper, who gave us only 2 washcloths for a 3 night stay. There were no kitchen supplies, and we were told to order them via the front desk. There were no toiletry items, and were told that they no longer supply anything but soap! We did manage to get a very small bottle of shampoo, but were told when we asked for a second bottle that they were out! We had kitchen facilities, but not even paper towels! The bathtub also had black gross hairs in it ! For a BARGAIN of $100.00 per night this was a total rip-off. P.S&gt; We had to stand in line for toilet paper!!!More</t>
   </si>
   <si>
+    <t>Debbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r218786751-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1617,6 +1794,9 @@
     <t>Best part of this hotel is the excellent, friendly staff! Kyle was great, helping us at check-in because of bank issues! Since we were staying for 6 nights, this was the best choice because of the full kitchen.  If you've never stayed at an Extended Stay, you do not have room service each day, only if you ask for it.  If you need something, you can get it yourself at the front desk (towels, toilet paper, kitchen items) or they will bring it to your room.  I like the idea of not having to worry about getting out of the room for the maids to clean.  Had some sand in the kitchen from the beach, borrowed a broom and really all we needed was supplied.  One of my biggest complaints was the fact that the bed was rock hard and only a full, but oh well.  10 minute drive to Sunset Beach/Huntington Beach, 10 minutes to a Wal-mart, 3 minutes to an Albertsons.    Grab and go breakfast is coffee, tea, oatmeal, granola bars, muffins and fruit in the lobby.  We had no problem with cleanliness as stated in the other reviews.  We would stay here again if staying for a long period of time.More</t>
   </si>
   <si>
+    <t>Dlrssoto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r213398793-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1641,6 +1821,9 @@
     <t>Roaches, table was  dirty with caked on food. I had to ask front desk clerk for cleaning rag.  I was over  charged  on my card back to back and she could not resolve it. rotten food in cupboard. Did not meet standards of cleanliness.More</t>
   </si>
   <si>
+    <t>Nivardo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r211240150-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -1657,6 +1840,9 @@
   </si>
   <si>
     <t>June 2014</t>
+  </si>
+  <si>
+    <t>veecarp</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d84097-r211168868-Extended_Stay_America_Orange_County_Huntington_Beach-Huntington_Beach_California.html</t>
@@ -2179,43 +2365,47 @@
       <c r="A2" t="n">
         <v>37434</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>114655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2227,56 +2417,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37434</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146643</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2288,56 +2482,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37434</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146644</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2355,56 +2553,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37434</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>10563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2422,56 +2624,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37434</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146645</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2493,56 +2699,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37434</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146646</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2560,56 +2770,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37434</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146647</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2621,56 +2835,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37434</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146648</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2682,56 +2900,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37434</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146649</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2747,56 +2969,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37434</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146650</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2818,56 +3044,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="X11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37434</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146651</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2889,56 +3119,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37434</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146652</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2954,56 +3188,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37434</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146653</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3015,56 +3253,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="X14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37434</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>6449</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3086,56 +3328,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37434</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146654</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3155,56 +3401,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37434</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146655</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3226,56 +3476,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37434</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146656</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3297,56 +3551,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37434</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146657</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3368,56 +3626,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37434</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>25019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3429,56 +3691,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37434</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146658</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3490,56 +3756,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37434</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>6394</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3557,56 +3827,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37434</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146659</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3620,50 +3894,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37434</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>25019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3675,56 +3953,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37434</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>655</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3738,50 +4020,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37434</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>23711</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3797,56 +4083,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37434</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146660</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3862,56 +4152,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37434</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146661</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3925,50 +4219,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37434</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>488</v>
+      </c>
+      <c r="C29" t="s">
+        <v>296</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3986,56 +4284,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="X29" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37434</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146662</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4047,56 +4349,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37434</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146663</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4108,56 +4414,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37434</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146664</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4175,56 +4485,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37434</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146665</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4242,50 +4556,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37434</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="O34" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4297,56 +4615,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="X34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="Y34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37434</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>32383</v>
+      </c>
+      <c r="C35" t="s">
+        <v>351</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4364,50 +4686,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37434</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146666</v>
+      </c>
+      <c r="C36" t="s">
+        <v>358</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4419,56 +4745,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37434</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146667</v>
+      </c>
+      <c r="C37" t="s">
+        <v>368</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4488,50 +4818,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37434</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146668</v>
+      </c>
+      <c r="C38" t="s">
+        <v>375</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4549,50 +4883,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37434</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4606,50 +4944,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37434</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146669</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4661,56 +5003,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="X40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="Y40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37434</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>15289</v>
+      </c>
+      <c r="C41" t="s">
+        <v>398</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="O41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4722,56 +5068,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="X41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37434</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>6294</v>
+      </c>
+      <c r="C42" t="s">
+        <v>408</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4791,50 +5141,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37434</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>513</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4848,50 +5202,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37434</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7465</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="K44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4909,56 +5267,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="X44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37434</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>11489</v>
+      </c>
+      <c r="C45" t="s">
+        <v>431</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="K45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4970,56 +5332,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="X45" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="Y45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37434</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>40618</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5035,56 +5401,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X46" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37434</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146670</v>
+      </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5102,56 +5472,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="X47" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="Y47" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37434</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>23399</v>
+      </c>
+      <c r="C48" t="s">
+        <v>459</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="J48" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="L48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="O48" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5169,56 +5543,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="X48" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="Y48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37434</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146671</v>
+      </c>
+      <c r="C49" t="s">
+        <v>469</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="J49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="L49" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5236,56 +5614,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="X49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="Y49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37434</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146672</v>
+      </c>
+      <c r="C50" t="s">
+        <v>479</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="J50" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="K50" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="L50" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5297,56 +5679,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="X50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37434</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146673</v>
+      </c>
+      <c r="C51" t="s">
+        <v>489</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="J51" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5364,56 +5750,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="X51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="Y51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37434</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146674</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="J52" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="K52" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="O52" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5429,56 +5819,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="X52" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="Y52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37434</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C53" t="s">
+        <v>507</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="J53" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="O53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5496,56 +5890,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="X53" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37434</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146675</v>
+      </c>
+      <c r="C54" t="s">
+        <v>517</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="K54" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="L54" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="O54" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5557,47 +5955,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="X54" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="Y54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37434</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146676</v>
+      </c>
+      <c r="C55" t="s">
+        <v>527</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="J55" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="K55" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="L55" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -5624,47 +6026,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="X55" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="Y55" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37434</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146677</v>
+      </c>
+      <c r="C56" t="s">
+        <v>536</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="J56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="K56" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="L56" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -5691,56 +6097,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="X56" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="Y56" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37434</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>10951</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="J57" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="K57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="L57" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="O57" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5760,50 +6170,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37434</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C58" t="s">
+        <v>553</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="J58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="K58" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="L58" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="O58" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5817,56 +6231,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="X58" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37434</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C59" t="s">
+        <v>563</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="J59" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="K59" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5878,56 +6296,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="X59" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="Y59" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37434</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146678</v>
+      </c>
+      <c r="C60" t="s">
+        <v>573</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="J60" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="K60" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="L60" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="O60" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5943,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="X60" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="Y60" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37434</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C61" t="s">
+        <v>582</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="K61" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="L61" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="O61" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6008,47 +6434,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="X61" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="Y61" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37434</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146679</v>
+      </c>
+      <c r="C62" t="s">
+        <v>592</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="J62" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="K62" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="L62" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
@@ -6075,56 +6505,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="X62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="Y62" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37434</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146680</v>
+      </c>
+      <c r="C63" t="s">
+        <v>601</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="J63" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="K63" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="L63" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="O63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6148,50 +6582,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37434</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146681</v>
+      </c>
+      <c r="C64" t="s">
+        <v>608</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="J64" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="K64" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="L64" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="O64" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6215,7 +6653,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_272.xlsx
@@ -2431,7 +2431,7 @@
         <v>37434</v>
       </c>
       <c r="B3" t="n">
-        <v>146643</v>
+        <v>177991</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2496,7 +2496,7 @@
         <v>37434</v>
       </c>
       <c r="B4" t="n">
-        <v>146644</v>
+        <v>177992</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2638,7 +2638,7 @@
         <v>37434</v>
       </c>
       <c r="B6" t="n">
-        <v>146645</v>
+        <v>177993</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -2713,7 +2713,7 @@
         <v>37434</v>
       </c>
       <c r="B7" t="n">
-        <v>146646</v>
+        <v>177994</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -2784,7 +2784,7 @@
         <v>37434</v>
       </c>
       <c r="B8" t="n">
-        <v>146647</v>
+        <v>177995</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -2849,7 +2849,7 @@
         <v>37434</v>
       </c>
       <c r="B9" t="n">
-        <v>146648</v>
+        <v>177996</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -2914,7 +2914,7 @@
         <v>37434</v>
       </c>
       <c r="B10" t="n">
-        <v>146649</v>
+        <v>177997</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -2983,7 +2983,7 @@
         <v>37434</v>
       </c>
       <c r="B11" t="n">
-        <v>146650</v>
+        <v>177998</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
@@ -3058,7 +3058,7 @@
         <v>37434</v>
       </c>
       <c r="B12" t="n">
-        <v>146651</v>
+        <v>177999</v>
       </c>
       <c r="C12" t="s">
         <v>151</v>
@@ -3133,7 +3133,7 @@
         <v>37434</v>
       </c>
       <c r="B13" t="n">
-        <v>146652</v>
+        <v>178000</v>
       </c>
       <c r="C13" t="s">
         <v>160</v>
@@ -3202,7 +3202,7 @@
         <v>37434</v>
       </c>
       <c r="B14" t="n">
-        <v>146653</v>
+        <v>178001</v>
       </c>
       <c r="C14" t="s">
         <v>170</v>
@@ -3342,7 +3342,7 @@
         <v>37434</v>
       </c>
       <c r="B16" t="n">
-        <v>146654</v>
+        <v>178002</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -3415,7 +3415,7 @@
         <v>37434</v>
       </c>
       <c r="B17" t="n">
-        <v>146655</v>
+        <v>178003</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -3490,7 +3490,7 @@
         <v>37434</v>
       </c>
       <c r="B18" t="n">
-        <v>146656</v>
+        <v>178004</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -3565,7 +3565,7 @@
         <v>37434</v>
       </c>
       <c r="B19" t="n">
-        <v>146657</v>
+        <v>178005</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -3705,7 +3705,7 @@
         <v>37434</v>
       </c>
       <c r="B21" t="n">
-        <v>146658</v>
+        <v>178006</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -3841,7 +3841,7 @@
         <v>37434</v>
       </c>
       <c r="B23" t="n">
-        <v>146659</v>
+        <v>178007</v>
       </c>
       <c r="C23" t="s">
         <v>248</v>
@@ -4097,7 +4097,7 @@
         <v>37434</v>
       </c>
       <c r="B27" t="n">
-        <v>146660</v>
+        <v>178008</v>
       </c>
       <c r="C27" t="s">
         <v>280</v>
@@ -4166,7 +4166,7 @@
         <v>37434</v>
       </c>
       <c r="B28" t="n">
-        <v>146661</v>
+        <v>178009</v>
       </c>
       <c r="C28" t="s">
         <v>289</v>
@@ -4298,7 +4298,7 @@
         <v>37434</v>
       </c>
       <c r="B30" t="n">
-        <v>146662</v>
+        <v>178010</v>
       </c>
       <c r="C30" t="s">
         <v>305</v>
@@ -4363,7 +4363,7 @@
         <v>37434</v>
       </c>
       <c r="B31" t="n">
-        <v>146663</v>
+        <v>178011</v>
       </c>
       <c r="C31" t="s">
         <v>314</v>
@@ -4428,7 +4428,7 @@
         <v>37434</v>
       </c>
       <c r="B32" t="n">
-        <v>146664</v>
+        <v>178012</v>
       </c>
       <c r="C32" t="s">
         <v>324</v>
@@ -4499,7 +4499,7 @@
         <v>37434</v>
       </c>
       <c r="B33" t="n">
-        <v>146665</v>
+        <v>178013</v>
       </c>
       <c r="C33" t="s">
         <v>334</v>
@@ -4694,7 +4694,7 @@
         <v>37434</v>
       </c>
       <c r="B36" t="n">
-        <v>146666</v>
+        <v>178014</v>
       </c>
       <c r="C36" t="s">
         <v>358</v>
@@ -4759,7 +4759,7 @@
         <v>37434</v>
       </c>
       <c r="B37" t="n">
-        <v>146667</v>
+        <v>178015</v>
       </c>
       <c r="C37" t="s">
         <v>368</v>
@@ -4826,7 +4826,7 @@
         <v>37434</v>
       </c>
       <c r="B38" t="n">
-        <v>146668</v>
+        <v>178016</v>
       </c>
       <c r="C38" t="s">
         <v>375</v>
@@ -4952,7 +4952,7 @@
         <v>37434</v>
       </c>
       <c r="B40" t="n">
-        <v>146669</v>
+        <v>178017</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -5415,7 +5415,7 @@
         <v>37434</v>
       </c>
       <c r="B47" t="n">
-        <v>146670</v>
+        <v>178018</v>
       </c>
       <c r="C47" t="s">
         <v>449</v>
@@ -5557,7 +5557,7 @@
         <v>37434</v>
       </c>
       <c r="B49" t="n">
-        <v>146671</v>
+        <v>178019</v>
       </c>
       <c r="C49" t="s">
         <v>469</v>
@@ -5628,7 +5628,7 @@
         <v>37434</v>
       </c>
       <c r="B50" t="n">
-        <v>146672</v>
+        <v>178020</v>
       </c>
       <c r="C50" t="s">
         <v>479</v>
@@ -5693,7 +5693,7 @@
         <v>37434</v>
       </c>
       <c r="B51" t="n">
-        <v>146673</v>
+        <v>178021</v>
       </c>
       <c r="C51" t="s">
         <v>489</v>
@@ -5764,7 +5764,7 @@
         <v>37434</v>
       </c>
       <c r="B52" t="n">
-        <v>146674</v>
+        <v>178022</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
@@ -5904,7 +5904,7 @@
         <v>37434</v>
       </c>
       <c r="B54" t="n">
-        <v>146675</v>
+        <v>178023</v>
       </c>
       <c r="C54" t="s">
         <v>517</v>
@@ -5969,7 +5969,7 @@
         <v>37434</v>
       </c>
       <c r="B55" t="n">
-        <v>146676</v>
+        <v>178024</v>
       </c>
       <c r="C55" t="s">
         <v>527</v>
@@ -6040,7 +6040,7 @@
         <v>37434</v>
       </c>
       <c r="B56" t="n">
-        <v>146677</v>
+        <v>178025</v>
       </c>
       <c r="C56" t="s">
         <v>536</v>
@@ -6310,7 +6310,7 @@
         <v>37434</v>
       </c>
       <c r="B60" t="n">
-        <v>146678</v>
+        <v>178026</v>
       </c>
       <c r="C60" t="s">
         <v>573</v>
@@ -6448,7 +6448,7 @@
         <v>37434</v>
       </c>
       <c r="B62" t="n">
-        <v>146679</v>
+        <v>178027</v>
       </c>
       <c r="C62" t="s">
         <v>592</v>
@@ -6519,7 +6519,7 @@
         <v>37434</v>
       </c>
       <c r="B63" t="n">
-        <v>146680</v>
+        <v>178028</v>
       </c>
       <c r="C63" t="s">
         <v>601</v>
@@ -6590,7 +6590,7 @@
         <v>37434</v>
       </c>
       <c r="B64" t="n">
-        <v>146681</v>
+        <v>178029</v>
       </c>
       <c r="C64" t="s">
         <v>608</v>
